--- a/Testcase_DA2.xlsx
+++ b/Testcase_DA2.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView windowWidth="20490" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Test cases" sheetId="1" r:id="rId1"/>
-    <sheet name="Test_Report" sheetId="2" r:id="rId2"/>
-    <sheet name="Cover" sheetId="3" r:id="rId3"/>
+    <sheet name="Test cases chức năng" sheetId="1" r:id="rId1"/>
+    <sheet name="Tescase Giao diện" sheetId="5" r:id="rId2"/>
+    <sheet name="Test_Report" sheetId="2" r:id="rId3"/>
+    <sheet name="Cover" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="Category" localSheetId="0">#REF!</definedName>
+    <definedName name="Category">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="270">
   <si>
     <t>Item Test</t>
   </si>
@@ -99,16 +101,26 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra đăng nhập thành công </t>
+    <t>Mã báo cáo issue (MantisBT)</t>
+  </si>
+  <si>
+    <t>Đăng nhập</t>
+  </si>
+  <si>
+    <t>Kiểm tra đăng nhập thành công khi nhập đúng email và mật khẩu</t>
   </si>
   <si>
     <t>Truy cập vào được trang đăng nhập của website HatGiongTheGioi</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -149,6 +161,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -185,13 +204,17 @@
     <t>Message thông báo lỗi "Bạn chưa nhập email (ten@domain.com)..!"</t>
   </si>
   <si>
-    <t>Bug_1</t>
-  </si>
-  <si>
     <t>Kiểm tra đăng nhập không đăng công khi nhập email không đúng định dạng, đúng mật khẩu</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -232,6 +255,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -268,13 +298,17 @@
     <t>Message thông báo lỗi "Bạn chưa nhập mật khẩu..!"</t>
   </si>
   <si>
-    <t>Bug_2</t>
-  </si>
-  <si>
     <t>Kiểm tra đăng nhập không thành công khi email không tồn tại, mât khẩu hợp lệ</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -315,6 +349,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -348,13 +389,17 @@
     </r>
   </si>
   <si>
-    <t>Bug_3</t>
-  </si>
-  <si>
     <t>Kiểm tra đăng nhập không thành công khi email và mật khẩu đều để trống</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -388,13 +433,17 @@
     </r>
   </si>
   <si>
-    <t>Bug_4</t>
-  </si>
-  <si>
     <t>Kiểm tra đăng nhập khi nhập đúng email và mật khẩu chứa ký tự đặc biệt</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -428,13 +477,20 @@
     </r>
   </si>
   <si>
-    <t>Đăng nhập thành công nếu mật khẩu đó đã được đăng ký và ngược lại mesage thông báo "Tài khoản hoặc mật khẩu bạn nhập chưa đúng..!"</t>
+    <t>Đăng nhập thành công nếu mật khẩu đó đã được đăng ký và ngược lại message thông báo "Tài khoản hoặc mật khẩu bạn nhập chưa đúng..!"</t>
   </si>
   <si>
     <t>Kiểm tra chức năng đăng nhập khi nhập mật khẩu dưới 6 kí tự, email đúng</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -478,6 +534,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -518,6 +581,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -558,6 +628,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -594,10 +671,23 @@
     <t>Đăng ký không thành công, message thông báo lỗi: "Email bạn nhập chưa đúng định dạng ten@gmail.com!"</t>
   </si>
   <si>
+    <t>bug 1</t>
+  </si>
+  <si>
+    <t>ID:0035202</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng đăng ký khi nhập email đã từng đăng ký, các thông tin còn lại nhập đủ</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -638,6 +728,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -678,6 +775,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -718,6 +822,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -758,6 +869,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -798,6 +916,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -838,6 +963,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -878,6 +1010,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -915,6 +1054,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -955,6 +1101,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -991,10 +1144,23 @@
     <t>Đăng ký không thành công, message thông báo lỗi "Số điện thoại không thể chứa chữ cái hoặc ký tự đặc biệt!"</t>
   </si>
   <si>
+    <t>bug 2</t>
+  </si>
+  <si>
+    <t>ID:0035203</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng đăng ký khi nhập trường Điện thoại ít hoặc hơn 10 chữ số, các trường khác nhập đủ</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -1031,10 +1197,23 @@
     <t>Đăng ký không thành công, message thông báo lỗi "Số điện thoại không đúng định dạng (10 chữ số)!"</t>
   </si>
   <si>
+    <t>bug 3</t>
+  </si>
+  <si>
+    <t>ID:0035204</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng đăng ký khi bỏ trống trường Địa chỉ, các trường khác nhập đủ</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -1075,6 +1254,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -1111,6 +1297,12 @@
     <t>Đăng ký không thành công, message thông báo lỗi "Vui lòng chọn Quốc gia của bạn!"</t>
   </si>
   <si>
+    <t>bug 4</t>
+  </si>
+  <si>
+    <t>ID:0035205</t>
+  </si>
+  <si>
     <t>Quên mật khẩu</t>
   </si>
   <si>
@@ -1121,6 +1313,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -1161,6 +1360,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -1201,6 +1407,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -1240,46 +1453,6 @@
     <t>Trang chủ</t>
   </si>
   <si>
-    <t>Kiểm tra hiển thị logo website</t>
-  </si>
-  <si>
-    <r>
-      <t>Bước 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:Truy cập vào trang chủ  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Bước 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Quan sát vị trí logo trên góc trái màn hình</t>
-    </r>
-  </si>
-  <si>
-    <t>Logo được hiển thị đúng trên góc trái màn hình</t>
-  </si>
-  <si>
     <t>Kiểm tra chức năng trở lại trang chủ khi nhấn vào logo hoặc khẩu hiệu trên Trang chủ</t>
   </si>
   <si>
@@ -1287,6 +1460,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -1323,50 +1503,17 @@
     <t xml:space="preserve">Load lại về trang chủ của trang </t>
   </si>
   <si>
-    <t>Kiểm tra hiển thị thông tin liên lạc của website</t>
-  </si>
-  <si>
-    <r>
-      <t>Bước 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:Truy cập vào trang chủ  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Bước 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Quan sát vị trí số điện thoại trên màn hình</t>
-    </r>
-  </si>
-  <si>
-    <t>Số điện thoại hiển thị lên đúng</t>
-  </si>
-  <si>
     <t>Kiểm tra chức năng liên kết hotline khi nhấn vào biểu tượng điện thoại/ số điện thoại trên màn hình Trang chủ</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -1403,6 +1550,12 @@
     <t>Tự động thực hiện cuộc gọi/hiển thị popup gọi điện thoại</t>
   </si>
   <si>
+    <t>bug5</t>
+  </si>
+  <si>
+    <t>ID:0035206</t>
+  </si>
+  <si>
     <t>Kiểm tra chức năng hiển thị sản phẩm gợi ý khi nhập từ khóa gần giống với tên sản phẩm vào ô text Tìm kiếm</t>
   </si>
   <si>
@@ -1410,6 +1563,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -1450,6 +1610,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -1486,176 +1653,17 @@
     <t>Báo lỗi" Vui lòng nhập từ khóa tìm kiếm!"</t>
   </si>
   <si>
-    <t>Kiểm tra chức năng tìm kiếm sản phẩm khi nhập giá sản phẩm trong ô text</t>
-  </si>
-  <si>
-    <t>Nhập giá tiền vào ô text tìm kiếm</t>
-  </si>
-  <si>
-    <r>
-      <t>Bước 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: Nhập giá 70000đ vào ô text Tìm kiếm sản phẩm
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Bước 2: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Nhấn button hình kính lúp</t>
-    </r>
-  </si>
-  <si>
-    <t>Hiển thị tất cả các sản phẩm có giá 70000đ bên dưới menu trang chủ</t>
-  </si>
-  <si>
-    <t>Kiểm tra hiển thị tên tài khoản đăng nhập</t>
-  </si>
-  <si>
-    <t>Đăng nhập thành công vào trang web</t>
-  </si>
-  <si>
-    <r>
-      <t>Bước 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: Đăng nhập tài khoản có tên Bíchngọc
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Bước 2: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Quan sát vị trí góc phải màn hình trang chủ</t>
-    </r>
-  </si>
-  <si>
-    <t>Hiển thị đúng tên người dùng đăng nhập</t>
-  </si>
-  <si>
-    <t>Kiểm tra chức năng hiển thị menu ẩn khi di chuột vào tên người tài khoản đăng nhập</t>
-  </si>
-  <si>
-    <r>
-      <t>Bước 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: Đăng nhập tài khoản có tên Bíchngọc
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Bước 2: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Di chuyển chuột vào tên tài khoản trên, quan sát</t>
-    </r>
-  </si>
-  <si>
-    <t>Hiển thị lên menu nhỏ bên dưới tên tài khoản</t>
-  </si>
-  <si>
-    <t>Kiểm tra hover đổi màu khi di chuột vào menu ẩn dưới tên tài khoản</t>
-  </si>
-  <si>
-    <r>
-      <t>Bước 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: Đăng nhập tài khoản có tên Bíchngọc
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Bước 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: Di chuyển chuột vào tên tài khoản trên, sau khi menu hiển thị tiếp tục di chuột xuống các mục và quan sát</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Các mục khi chuột di chuyển tới được đổi màu </t>
-  </si>
-  <si>
     <t>Kiểm tra các mục trong thanh điều hướng (Dụng cụ làm vườn, hạt giống...)</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -1692,46 +1700,6 @@
     <t>Điều hướng đúng đến trang danh mục tương ứng</t>
   </si>
   <si>
-    <t>Kiểm tra chức năng hiển thị sản phẩm trong giỏ hàng khi di chuột vào button Giỏ hàng</t>
-  </si>
-  <si>
-    <r>
-      <t>Bước 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: Di chuyển chuột tới button giỏ hàng
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Bước 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: Xem kết quả</t>
-    </r>
-  </si>
-  <si>
-    <t>Các sản phẩm trong giỏ hàng được hiện lên màn hình nhỏ và tổng tiền các sản phẩm</t>
-  </si>
-  <si>
     <t>Kiểm tra chức năng giỏ hàng khi thêm sản phẩm và kiểm tra tổng giá tiền</t>
   </si>
   <si>
@@ -1739,6 +1707,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -1775,53 +1750,20 @@
     <t>Hiển thị đúng số lượng và tổng giá trị đơn hàng</t>
   </si>
   <si>
-    <t>Kiểm tra hiển thị banner “FREE SHIP CHO ĐƠN HÀNG &gt;500K (Gói Nhỏ)”</t>
+    <t>Kiểm tra liên kết banner ưu đãi khi nhấn vào hình banner</t>
   </si>
   <si>
     <t>Truy cập được vào trang web</t>
   </si>
   <si>
     <r>
-      <t>Bước 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: Truy cập được vào trang chủ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Bước 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: Quan sát hiển thị banner khuyến mãi dưới thanh điều hướng</t>
-    </r>
-  </si>
-  <si>
-    <t>Banner hiển thị rõ nét, thông tin chính xác</t>
-  </si>
-  <si>
-    <t>Kiểm tra liên kết banner ưu đãi khi nhấn vào hình banner</t>
-  </si>
-  <si>
-    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -1858,93 +1800,20 @@
     <t>Màn hình được chuyển tới trang tin tức của trang web</t>
   </si>
   <si>
-    <t>Kiểm tra hover trên hình ảnh sản phẩm</t>
+    <t>Thêm sản phẩm vào giỏ hàng</t>
   </si>
   <si>
     <t>Truy cập được vào trang chứa danh sách các sản phẩm của web</t>
   </si>
   <si>
     <r>
-      <t>Bước 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: Di chuột lên hình ảnh sản phẩm
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Bước 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: Quan sát sự thay đổi của hình ảnh (phóng to)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hình ảnh sản phẩm được phóng to ra </t>
-  </si>
-  <si>
-    <t>Kiểm tra hover trên button Thêm giỏ hàng</t>
-  </si>
-  <si>
-    <r>
-      <t>Bước 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: Di chuột lên button Thêm giỏ hàng
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Bước 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: Quan sát sự đổi màu của button</t>
-    </r>
-  </si>
-  <si>
-    <t>Button khi được di chuột tới thì đổi sang màu khác</t>
-  </si>
-  <si>
-    <t>Thêm sản phẩm vào giỏ hàng</t>
-  </si>
-  <si>
-    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -1985,6 +1854,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -2025,6 +1901,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -2061,50 +1944,17 @@
     <t>Mặc định hệ thống cho số lượng là 1</t>
   </si>
   <si>
-    <t>Kiểm tra hover khi di chuột lên tên sản phẩm</t>
-  </si>
-  <si>
-    <r>
-      <t>Bước 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: Di chuột lên tên của một sản phẩm bất kỳ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Bước 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: Quan sát sự thay đổi màu chữ</t>
-    </r>
-  </si>
-  <si>
-    <t>Tên sản phẩm được đổi màu thành công khi di chuột vào</t>
-  </si>
-  <si>
     <t>Kiểm tra combo box các thông tin số lượng trong 1 sản phẩm và giá của sản phẩm tương ứng</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -2141,46 +1991,6 @@
     <t>Số lượng và giá tiền nhảy đúng theo như đã chọn trong hộp thoại</t>
   </si>
   <si>
-    <t>Kiểm tra combo box thông tin số lượng trong một sản phẩm và giá tương ứng khi không chọn bất kì một mục nào trong hộp thoại</t>
-  </si>
-  <si>
-    <r>
-      <t>Bước 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: Chọn sản phẩm bất kỳ, chọn số lượng mặt hàng muốn mua nhưng không chọn mục nào trong combo box
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Bước 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: Nhấn Thêm vào giỏ hàng</t>
-    </r>
-  </si>
-  <si>
-    <t>Hiển thị message "Vui lòng chọn loại mặt hàng"</t>
-  </si>
-  <si>
     <t>Kiểm tra liên kết sản phẩm với trang chi tiết sản phẩm</t>
   </si>
   <si>
@@ -2188,6 +1998,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -2224,264 +2041,6 @@
     <t>Điểu hướng đúng đến trang chi tiết sản phẩm</t>
   </si>
   <si>
-    <t>Hiển thị ảnh sản phẩm</t>
-  </si>
-  <si>
-    <t>Trang danh sách sản phẩm tải thành công.</t>
-  </si>
-  <si>
-    <r>
-      <t>Bước 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:Quan sát toàn bộ ảnh sản phẩm
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Bước 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: Kiểm tra xem có ảnh nào bị lỗi hoặc không hiển thị</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hình ảnh sản phẩm hiển thị đầy </t>
-  </si>
-  <si>
-    <t>Chức năng cuộn trang</t>
-  </si>
-  <si>
-    <t>Danh sách sản phẩm dài hơn chiều cao của màn hình</t>
-  </si>
-  <si>
-    <r>
-      <t>Bước 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: Cuộn xuống cuối trang
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Bước 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: Đảm bảo không có lỗi khi cuộn</t>
-    </r>
-  </si>
-  <si>
-    <t>Trang cuộn mượt và không bị lỗi</t>
-  </si>
-  <si>
-    <t>Kiểm tra chức năng phân trang</t>
-  </si>
-  <si>
-    <t>Danh sách sản phẩm lớn hơn số lượng sản phẩm trên mỗi trang</t>
-  </si>
-  <si>
-    <r>
-      <t>Bước 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: Đi tới phần chia trang
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Bước 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: Kiểm tra sản phẩm được hiển thị</t>
-    </r>
-  </si>
-  <si>
-    <t>Hiển thị đúng trang sản phẩm đã chọn</t>
-  </si>
-  <si>
-    <t>Hiển thị mô tả sản phẩm</t>
-  </si>
-  <si>
-    <t>Trang danh sách sản phẩm hiển thị thành công.</t>
-  </si>
-  <si>
-    <r>
-      <t>Bước 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: Quan sát mô tả ngắn của từng sản phẩm
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Bước 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: Kiểm tra mô tả sản phẩm được hiển thị xem có lỗi hoặc sai thông tin </t>
-    </r>
-  </si>
-  <si>
-    <t>Mô tả sản phẩm hiển thị đúng và rõ ràng.</t>
-  </si>
-  <si>
-    <t>Hover trên danh mục (menu)</t>
-  </si>
-  <si>
-    <t>Menu danh mục hiển thị trên đầu trang</t>
-  </si>
-  <si>
-    <r>
-      <t>Bước 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: Di chuột lên từng danh mục trong menu
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Bước 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: Quan sát phẩn hồi từ menu ( đổi màu)</t>
-    </r>
-  </si>
-  <si>
-    <t>Menu phản hồi đổi màu khi chuột di chuyển tới</t>
-  </si>
-  <si>
-    <t>Icon giỏ hàng nổi hiển thị tổng số lượng sản phẩm</t>
-  </si>
-  <si>
-    <t>Giỏ hàng trống hoặc có sản phẩm.</t>
-  </si>
-  <si>
-    <r>
-      <t>Bước 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: Thêm sản phẩm vào giỏ hàng hoặc không
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Bước 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: Quan sát tổng số lượng hiển thị trên icon giỏ hàng nổi</t>
-    </r>
-  </si>
-  <si>
-    <t>Tổng số lượng hiển thị đúng</t>
-  </si>
-  <si>
     <t>Xóa sản phẩm khỏi giỏ hàng</t>
   </si>
   <si>
@@ -2489,6 +2048,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -2525,13 +2091,20 @@
     <t>Sản phẩm được xóa khỏi giỏ hàng thành công.</t>
   </si>
   <si>
-    <t>Kiểm tra icon liên hệ qua Mail/ Hotline</t>
+    <t>Kiểm tra liên kết icon liên hệ qua Mail/ Hotline</t>
   </si>
   <si>
     <t>icon Mail/ hotline hiển thị ở góc màn hình</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -2569,6 +2142,1223 @@
   </si>
   <si>
     <t>Trang chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng thêm vào giỏ hàng khi không nhấn chọn bất kỳ một gói sản phẩm nào</t>
+  </si>
+  <si>
+    <t>Người dùng nhấn vào sản phẩm muốn mua và đã chuyển sang trang chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Nhấn vào sản phẩm muốn mua tại trang chủ hoặc trang tìm kiếm, bỏ tích các gói sản phẩm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: Nhấn button Thêm Vào Giỏ</t>
+    </r>
+  </si>
+  <si>
+    <t>Hệ thống thông báo lỗi " Bạn chưa chọn sản phẩm nào"</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng thêm vào giỏ hàng khi nhấn chọn hai gói sản phẩm cùng lúc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Nhấn vào sản phẩm muốn mua tại trang chủ hoặc trang tìm kiếm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Bước 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Tích chọn vào 2 checkbox gói sản phẩm</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Bước 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Nhấn button Thêm Vào Giỏ</t>
+    </r>
+  </si>
+  <si>
+    <t>Sản phẩm được thêm thành công vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng thêm vào giỏ hàng khi nhấn chọn gói sản phẩm trong tình trạng hết hàng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Nhấn vào sản phẩm muốn mua tại trang chủ hoặc trang tìm kiếm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Tích chọn gói sản phẩm mà tình trạng của sản phẩm đó đang hết
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: Nhấn button Thêm Vào Giỏ</t>
+    </r>
+  </si>
+  <si>
+    <t>Message thông báo lỗi "Gói sản phẩm này đã hết hàng. Vui lòng chọn gói sản phẩm khác"</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng chọn gói sản phẩm thêm vào giỏ hàng khi chỉ chọn số lượng gói sản phẩm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Nhấn vào sản phẩm muốn mua tại trang chủ hoặc trang tìm kiếm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Click vào dấu + hoặc - tại phần số lượng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: Nhấn button Thêm Vào Giỏ</t>
+    </r>
+  </si>
+  <si>
+    <t>Thêm vào giỏ hàng thành công</t>
+  </si>
+  <si>
+    <t>Kiểm tra button Mua ngay khi không chọn gói sản phẩm nào trong checkbox</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Nhấn vào sản phẩm muốn mua tại trang chủ hoặc trang tìm kiếm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Bỏ tích chọn các checkbox
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: Nhấn button Mua ngay</t>
+    </r>
+  </si>
+  <si>
+    <t>Message thông báo lỗi "Bạn chưa chọn gói sản phẩm nào"</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng Mua ngay khi chọn tất cả các gói trong checkbox</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Nhấn vào sản phẩm muốn mua tại trang chủ hoặc trang tìm kiếm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Tích chọn tất cả các gói checkbox
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: Nhấn button Mua ngay</t>
+    </r>
+  </si>
+  <si>
+    <t>Chuyển thành công các gói sản phẩm vừa chọn sang trang mua hàng</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng Mua ngay khi lặp lại thao tác chọn gói</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Nhấn vào sản phẩm muốn mua tại trang chủ hoặc trang tìm kiếm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Tích chọn tất cả các gói checkbox
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: Nhấn button Mua ngay
+Bước 4: Nhấn mũi tên quay trở lại trang trước
+Bước 5: Nhấn button Mua ngay</t>
+    </r>
+  </si>
+  <si>
+    <t>Chuyển thành công sang trang mua hàng, số lượng gói sản phẩm được cộng dồn theo từng lần lặp</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng liên kết khi nhấn vào hình ảnh hoặc tên sản phẩm trong đơn hàng mua ngay</t>
+  </si>
+  <si>
+    <t>Đã chọn ít nhất một gói sản phẩm trong trang chi tiết sản phẩm đó và nhấn vào Mua ngay</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Chọn gói sản phẩm bằng cách nhấn tích vào checkbox
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Nhấn button Mua ngay
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: Click chuột vào hình ảnh hoặc tên sản phẩm trong đơn hàng</t>
+    </r>
+  </si>
+  <si>
+    <t>Điều hướng đến đúng trang sản phẩm đã chọn</t>
+  </si>
+  <si>
+    <t>Kiểm tra button Tiếp tục mua hàng khi đã chọn được ít nhất một sản phẩm vào trong đơn hàng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Chọn gói sản phẩm bằng cách nhấn tích vào checkbox
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Nhấn button Mua ngay
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: Click button "Tiếp tục mua hàng"</t>
+    </r>
+  </si>
+  <si>
+    <t>Quay trở lại trang chủ của trang web</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng xóa mặt hàng trong đơn hàng mua ngay khi có 1 đơn hàng</t>
+  </si>
+  <si>
+    <t>Đã chọn một gói sản phẩm trong trang chi tiết sản phẩm đó và nhấn vào Mua ngay</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Bước 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Chọn 1 gói sản phẩm bằng cách nhấn tích vào checkbox</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Bước 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Nhấn button Mua ngay</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Bước 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Click chuột vào biểu tượng thùng rác</t>
+    </r>
+  </si>
+  <si>
+    <t>sản phẩm trong đơn hàng được xóa thành công và hiển thị liên kết "trở lại mua hàng"</t>
+  </si>
+  <si>
+    <t>Kiểm tra button "Mua hàng" khi đã chọn được ít nhất một sản phẩm vào trong đơn hàng Mua ngay</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Bước 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Chọn 1 gói sản phẩm bằng cách nhấn tích vào checkbox</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Bước 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Nhấn button Mua ngay</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Bước 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Click chuột vào button "Mua hàng"</t>
+    </r>
+  </si>
+  <si>
+    <t>Chuyển thành công sang giao diện Đặt hàng</t>
+  </si>
+  <si>
+    <t>Kiểm tra bố cục responsive</t>
+  </si>
+  <si>
+    <t>Trang web được thiết kế responsive.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Mở trang trên các thiết bị khác nhau (PC, tablet, mobile).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Quan sát xem các thành phần (menu, nút, banner) có tự điều chỉnh kích thước phù hợp không.</t>
+    </r>
+  </si>
+  <si>
+    <t>Trang web tự điều chỉnh kích thước và bố cục hợp lý trên các kích thước màn hình, không bị tràn hoặc ẩn nội dung.</t>
+  </si>
+  <si>
+    <t>Kiểm tra font chữ của trang</t>
+  </si>
+  <si>
+    <t>Font chữ đã được cấu hình đồng bộ cho toàn bộ trang web.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Quan sát các phần tử text trên trang web (menu, nội dung banner, text sản phẩm).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Kiểm tra font chữ hiển thị rõ ràng và đồng nhất.</t>
+    </r>
+  </si>
+  <si>
+    <t>Font chữ rõ ràng, kích thước hợp lý và đồng nhất trên toàn bộ trang.</t>
+  </si>
+  <si>
+    <t>Kiểm tra màu sắc và chủ đề trang</t>
+  </si>
+  <si>
+    <t>Chủ đề và màu sắc trang web đã được cấu hình.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Quan sát toàn bộ trang, kiểm tra màu nền, màu chữ, màu của các nút và menu.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Đảm bảo màu sắc không gây chói mắt hoặc khó đọc.</t>
+    </r>
+  </si>
+  <si>
+    <t>Màu sắc hài hòa, dễ nhìn, không có lỗi phối màu hoặc text bị chìm vào nền.</t>
+  </si>
+  <si>
+    <t>Kiểm tra biểu tượng favicon</t>
+  </si>
+  <si>
+    <t>Favicon đã được cấu hình.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: Mở trang web trên trình duyệt và quan sát favicon hiển thị trên tab trình duyệt.</t>
+    </r>
+  </si>
+  <si>
+    <t>Favicon hiển thị rõ ràng, kích thước đúng, không bị lỗi hoặc không hiển thị.</t>
+  </si>
+  <si>
+    <t>Kiểm tra căn lề và khoảng cách</t>
+  </si>
+  <si>
+    <t>Tất cả các phần tử trên trang đã được căn chỉnh.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Kiểm tra khoảng cách giữa các phần tử (menu, banner, nội dung, footer).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Quan sát xem có khoảng cách thừa hoặc chồng lấn không.</t>
+    </r>
+  </si>
+  <si>
+    <t>Các phần tử được căn chỉnh đều đặn, không có khoảng cách thừa hoặc bị chồng lấn.</t>
+  </si>
+  <si>
+    <t>Kiểm tra tiêu đề trang web</t>
+  </si>
+  <si>
+    <t>Tiêu đề trang đã được cấu hình đầy đủ.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Kiểm tra tiêu đề của trang hiển thị trên tab trình duyệt.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Đảm bảo tiêu đề không bị lỗi ký tự hoặc quá dài.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tiêu đề hiển thị đúng, đầy đủ và không bị lỗi.</t>
+  </si>
+  <si>
+    <t>Kiểm tra phần footer</t>
+  </si>
+  <si>
+    <t>Footer đã được cấu hình đầy đủ.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Cuộn xuống cuối trang và kiểm tra phần footer.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  Đảm bảo các thông tin liên hệ, bản quyền, và liên kết mạng xã hội hiển thị đúng.</t>
+    </r>
+  </si>
+  <si>
+    <t>Footer đầy đủ thông tin, không bị lỗi căn chỉnh hoặc thiếu dữ liệu.</t>
+  </si>
+  <si>
+    <t>Kiểm tra logo trang web</t>
+  </si>
+  <si>
+    <t>Logo đã được cấu hình trong trang web.</t>
+  </si>
+  <si>
+    <t>Logo hiển thị rõ ràng, kích thước cân đối, không bị mờ hoặc lệch.</t>
+  </si>
+  <si>
+    <t>Kiểm tra thanh menu điều hướng</t>
+  </si>
+  <si>
+    <t>Thanh menu đã được cấu hình với các mục chính.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:  Kiểm tra vị trí thanh menu ở dưới logo.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  Đảm bảo các mục (Dụng cụ làm vườn, Hạt giống hoa,...) được căn đều, rõ ràng.</t>
+    </r>
+  </si>
+  <si>
+    <t>Thanh menu hiển thị đúng vị trí, các mục dễ nhìn và không bị chồng lấn.</t>
+  </si>
+  <si>
+    <t>Kiểm tra banner quảng cáo</t>
+  </si>
+  <si>
+    <t>Banner quảng cáo đã được cấu hình.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:  Kiểm tra hình ảnh banner hiển thị bên dưới thanh menu.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  Đảm bảo nội dung text trên banner không bị cắt hoặc mờ.</t>
+    </r>
+  </si>
+  <si>
+    <t>Banner hiển thị sắc nét, nội dung không bị che khuất, màu sắc dễ nhìn.</t>
+  </si>
+  <si>
+    <t>Kiểm tra danh sách menu con</t>
+  </si>
+  <si>
+    <t>Các danh mục menu con đã được cấu hình đầy đủ.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:  Di chuột vào các mục chính trên thanh menu (ví dụ: Hạt giống hoa).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bước 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  Quan sát hiển thị của danh sách menu con.</t>
+    </r>
+  </si>
+  <si>
+    <t>Menu con hiển thị rõ ràng, dễ đọc, không bị lệch hoặc đè lên các thành phần khác.</t>
   </si>
   <si>
     <t>TEST REPORT</t>
@@ -2650,7 +3440,7 @@
     <numFmt numFmtId="179" formatCode="[$-409]d\-mmm\-yyyy"/>
     <numFmt numFmtId="180" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2766,71 +3556,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
-      <sz val="10"/>
-      <color rgb="FF008000"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
@@ -2845,11 +3571,30 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF23527C"/>
+      <name val="Open Sans"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -3001,7 +3746,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3035,6 +3780,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3225,7 +3976,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -3586,73 +4337,120 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3668,6 +4466,92 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3745,32 +4629,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -3780,6 +4638,17 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3810,9 +4679,7 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -3825,9 +4692,20 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -3835,14 +4713,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color auto="1"/>
-      </right>
-      <top style="thin">
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3963,138 +4841,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="58" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="62" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="63" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="42" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4231,7 +5109,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="22" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="22" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4264,263 +5142,321 @@
     <xf numFmtId="179" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="17" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="10" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="5" borderId="34" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="5" borderId="37" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="6" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="6" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -4839,30 +5775,28 @@
       <sheetName val="Cover"/>
       <sheetName val="TestReport"/>
       <sheetName val="Test cases"/>
-      <sheetName val="Test cases (2)"/>
       <sheetName val="Permisison Matrix"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
-        <row r="5">
-          <cell r="A5">
-            <v>5</v>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>%</v>
           </cell>
-          <cell r="B5">
-            <v>27</v>
+          <cell r="B6" t="str">
+            <v>%</v>
           </cell>
-          <cell r="C5">
-            <v>1</v>
+          <cell r="C6" t="str">
+            <v>%</v>
           </cell>
-          <cell r="D5">
-            <v>0</v>
+          <cell r="D6" t="str">
+            <v>%</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5126,10 +6060,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -5142,6 +6076,7 @@
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="7" width="19.4285714285714" customWidth="1"/>
     <col min="8" max="8" width="15.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -5151,2164 +6086,2054 @@
       <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="141"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="162"/>
     </row>
     <row r="2" ht="25.5" spans="1:9">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="141"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="162"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="141"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="162"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="142"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="163"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="87">
+      <c r="A5" s="111">
         <f>COUNTIF(F:F,"Pass")</f>
-        <v>51</v>
-      </c>
-      <c r="B5" s="88">
+        <v>47</v>
+      </c>
+      <c r="B5" s="112">
         <f>COUNTIF(F:F,"Fail")</f>
-        <v>9</v>
-      </c>
-      <c r="C5" s="88">
+        <v>5</v>
+      </c>
+      <c r="C5" s="112">
         <f>COUNTIF(F:F,"Untested")</f>
         <v>0</v>
       </c>
-      <c r="D5" s="89">
+      <c r="D5" s="113">
         <f>COUNTIF(F:F,"N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="88">
+        <v>1</v>
+      </c>
+      <c r="E5" s="112">
         <f>SUM(A5:D5)</f>
-        <v>60</v>
-      </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="142"/>
+        <v>53</v>
+      </c>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="163"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="91"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="142"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="163"/>
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="1:9">
-      <c r="A7" s="93"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="142"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="99" t="s">
+      <c r="A7" s="117"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="163"/>
+    </row>
+    <row r="8" ht="25.5" spans="1:10">
+      <c r="A8" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="100" t="s">
+      <c r="F8" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="100" t="s">
+      <c r="G8" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="100" t="s">
+      <c r="H8" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="143" t="s">
+      <c r="I8" s="164" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="101"/>
-      <c r="B9" s="102" t="s">
+      <c r="J8" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="144"/>
-    </row>
-    <row r="10" ht="38.25" spans="1:9">
-      <c r="A10" s="105" t="str">
+    </row>
+    <row r="9" customHeight="1" spans="1:10">
+      <c r="A9" s="123"/>
+      <c r="B9" s="124" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="125"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+    </row>
+    <row r="10" ht="38.25" spans="1:10">
+      <c r="A10" s="85" t="str">
         <f>IF(AND(E10=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E9)+1,"##")&amp;"]")</f>
         <v>[TC-1]</v>
       </c>
-      <c r="B10" s="106" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="106" t="s">
+      <c r="B10" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="C10" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="D10" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="109" t="s">
+      <c r="E10" s="129" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="105">
+      <c r="G10" s="85">
         <f ca="1" t="shared" ref="G10:G18" si="0">TODAY()</f>
-        <v>45646</v>
-      </c>
-      <c r="H10" s="109" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H10" s="80" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I10" s="145"/>
-    </row>
-    <row r="11" ht="51" customHeight="1" spans="1:9">
-      <c r="A11" s="109" t="str">
+      <c r="I10" s="166"/>
+      <c r="J10" s="167"/>
+    </row>
+    <row r="11" ht="51" customHeight="1" spans="1:10">
+      <c r="A11" s="80" t="str">
         <f>IF(AND(E11=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E10)+1,"##")&amp;"]")</f>
         <v>[TC-2]</v>
       </c>
-      <c r="B11" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="107" t="s">
+      <c r="B11" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="106" t="s">
+      <c r="C11" s="127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="109" t="s">
+      <c r="E11" s="127" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="105">
+      <c r="G11" s="85">
         <f ca="1" t="shared" si="0"/>
-        <v>45646</v>
-      </c>
-      <c r="H11" s="109" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H11" s="80" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I11" s="145" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="1:9">
-      <c r="A12" s="109" t="str">
+      <c r="I11" s="166"/>
+      <c r="J11" s="98"/>
+    </row>
+    <row r="12" ht="51" spans="1:10">
+      <c r="A12" s="80" t="str">
         <f>IF(AND(E12=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E11)+1,"##")&amp;"]")</f>
         <v>[TC-3]</v>
       </c>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="107" t="s">
+      <c r="C12" s="127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="106" t="s">
+      <c r="E12" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="105">
+      <c r="G12" s="85">
         <f ca="1" t="shared" si="0"/>
-        <v>45646</v>
-      </c>
-      <c r="H12" s="109" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H12" s="80" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I12" s="145"/>
-    </row>
-    <row r="13" ht="51" customHeight="1" spans="1:9">
-      <c r="A13" s="109" t="str">
+      <c r="I12" s="166"/>
+      <c r="J12" s="98"/>
+    </row>
+    <row r="13" ht="51" customHeight="1" spans="1:10">
+      <c r="A13" s="80" t="str">
         <f>IF(AND(E13=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E12)+1,"##")&amp;"]")</f>
         <v>[TC-4]</v>
       </c>
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="107" t="s">
+      <c r="C13" s="127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="106" t="s">
+      <c r="E13" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="109" t="s">
+      <c r="F13" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="105">
+      <c r="G13" s="85">
         <f ca="1" t="shared" si="0"/>
-        <v>45646</v>
-      </c>
-      <c r="H13" s="109" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H13" s="80" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I13" s="145" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" ht="63.75" spans="1:9">
-      <c r="A14" s="109" t="str">
+      <c r="I13" s="166"/>
+      <c r="J13" s="98"/>
+    </row>
+    <row r="14" ht="63.75" spans="1:10">
+      <c r="A14" s="80" t="str">
         <f>IF(AND(E14=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E13)+1,"##")&amp;"]")</f>
         <v>[TC-5]</v>
       </c>
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="127" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="107" t="s">
+      <c r="E14" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="106" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="109" t="s">
+      <c r="F14" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="105">
+      <c r="G14" s="85">
         <f ca="1" t="shared" si="0"/>
-        <v>45646</v>
-      </c>
-      <c r="H14" s="109" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H14" s="80" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I14" s="145"/>
-    </row>
-    <row r="15" ht="51" customHeight="1" spans="1:9">
-      <c r="A15" s="109" t="str">
+      <c r="I14" s="166"/>
+      <c r="J14" s="98"/>
+    </row>
+    <row r="15" ht="51" customHeight="1" spans="1:10">
+      <c r="A15" s="80" t="str">
         <f>IF(AND(E15=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E14)+1,"##")&amp;"]")</f>
         <v>[TC-6]</v>
       </c>
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="127" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="107" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="106" t="s">
+      <c r="E15" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="109" t="s">
+      <c r="F15" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="105">
+      <c r="G15" s="85">
         <f ca="1" t="shared" si="0"/>
-        <v>45646</v>
-      </c>
-      <c r="H15" s="109" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H15" s="80" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I15" s="145" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" ht="51" spans="1:9">
-      <c r="A16" s="109" t="str">
+      <c r="I15" s="166"/>
+      <c r="J15" s="98"/>
+    </row>
+    <row r="16" ht="51" spans="1:10">
+      <c r="A16" s="80" t="str">
         <f>IF(AND(E16=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E15)+1,"##")&amp;"]")</f>
         <v>[TC-7]</v>
       </c>
-      <c r="B16" s="106" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="107" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="109" t="s">
+      <c r="B16" s="127" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="127" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="105">
+      <c r="G16" s="85">
         <f ca="1" t="shared" si="0"/>
-        <v>45646</v>
-      </c>
-      <c r="H16" s="109" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H16" s="80" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I16" s="146" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" ht="76.5" customHeight="1" spans="1:9">
-      <c r="A17" s="109" t="str">
+      <c r="I16" s="168"/>
+      <c r="J16" s="98"/>
+    </row>
+    <row r="17" ht="76.5" customHeight="1" spans="1:10">
+      <c r="A17" s="80" t="str">
         <f>IF(AND(E17=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E16)+1,"##")&amp;"]")</f>
         <v>[TC-8]</v>
       </c>
-      <c r="B17" s="106" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="106" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="109" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="105">
+      <c r="B17" s="127" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="128" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="85">
         <f ca="1" t="shared" si="0"/>
-        <v>45646</v>
-      </c>
-      <c r="H17" s="109" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H17" s="80" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I17" s="147"/>
-    </row>
-    <row r="18" ht="63.75" spans="1:9">
-      <c r="A18" s="110" t="str">
+      <c r="I17" s="169"/>
+      <c r="J17" s="98"/>
+    </row>
+    <row r="18" ht="63.75" spans="1:10">
+      <c r="A18" s="130" t="str">
         <f>IF(AND(E18=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E17)+1,"##")&amp;"]")</f>
         <v>[TC-9]</v>
       </c>
-      <c r="B18" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="112" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="111" t="s">
+      <c r="B18" s="131" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="132" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="110" t="s">
+      <c r="F18" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="113">
+      <c r="G18" s="133">
         <f ca="1" t="shared" si="0"/>
-        <v>45646</v>
-      </c>
-      <c r="H18" s="110" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H18" s="130" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I18" s="148"/>
-    </row>
-    <row r="19" ht="27" customHeight="1" spans="1:9">
-      <c r="A19" s="114" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="149"/>
-    </row>
-    <row r="20" ht="66" customHeight="1" spans="1:9">
-      <c r="A20" s="110" t="str">
+      <c r="I18" s="170"/>
+      <c r="J18" s="98"/>
+    </row>
+    <row r="19" ht="27" customHeight="1" spans="1:18">
+      <c r="A19" s="134" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="135"/>
+      <c r="R19" s="135"/>
+    </row>
+    <row r="20" ht="66" customHeight="1" spans="1:10">
+      <c r="A20" s="130" t="str">
         <f>IF(AND(E20=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E19)+1,"##")&amp;"]")</f>
         <v>[TC-10]</v>
       </c>
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="136" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="132" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="110" t="s">
+      <c r="F20" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="113">
+      <c r="G20" s="133">
         <f ca="1">TODAY()</f>
-        <v>45646</v>
-      </c>
-      <c r="H20" s="110" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H20" s="130" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I20" s="140"/>
-    </row>
-    <row r="21" ht="76.5" spans="1:9">
-      <c r="A21" s="110" t="str">
+      <c r="I20" s="171"/>
+      <c r="J20" s="98"/>
+    </row>
+    <row r="21" ht="76.5" spans="1:10">
+      <c r="A21" s="130" t="str">
         <f>IF(AND(E21=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E20)+1,"##")&amp;"]")</f>
         <v>[TC-11]</v>
       </c>
-      <c r="B21" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="116" t="s">
+      <c r="B21" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="112" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="116" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="110" t="s">
+      <c r="C21" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="136" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="113">
+      <c r="G21" s="133">
         <f ca="1">TODAY()</f>
-        <v>45646</v>
-      </c>
-      <c r="H21" s="110" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H21" s="130" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I21" s="140"/>
-    </row>
-    <row r="22" ht="89.25" spans="1:9">
-      <c r="A22" s="110" t="str">
+      <c r="I21" s="171"/>
+      <c r="J21" s="98"/>
+    </row>
+    <row r="22" ht="89.25" spans="1:10">
+      <c r="A22" s="130" t="str">
         <f>IF(AND(E22=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E21)+1,"##")&amp;"]")</f>
         <v>[TC-12]</v>
       </c>
-      <c r="B22" s="116" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="112" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="116" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="110" t="s">
+      <c r="B22" s="136" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="132" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="136" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="113">
+      <c r="G22" s="133">
         <f ca="1">TODAY()</f>
-        <v>45646</v>
-      </c>
-      <c r="H22" s="110" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H22" s="130" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I22" s="140"/>
-    </row>
-    <row r="23" ht="76.5" customHeight="1" spans="1:9">
-      <c r="A23" s="110" t="str">
+      <c r="I22" s="171" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="172" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" ht="76.5" customHeight="1" spans="1:10">
+      <c r="A23" s="130" t="str">
         <f>IF(AND(E23=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E22)+1,"##")&amp;"]")</f>
         <v>[TC-13]</v>
       </c>
-      <c r="B23" s="116" t="s">
+      <c r="B23" s="136" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="132" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="112" t="s">
+      <c r="E23" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="110" t="s">
+      <c r="F23" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="113">
+      <c r="G23" s="133">
         <f ca="1">TODAY()</f>
-        <v>45646</v>
-      </c>
-      <c r="H23" s="110" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H23" s="130" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I23" s="140"/>
-    </row>
-    <row r="24" ht="76.5" spans="1:9">
-      <c r="A24" s="110" t="str">
+      <c r="I23" s="171"/>
+      <c r="J23" s="98"/>
+    </row>
+    <row r="24" ht="76.5" spans="1:10">
+      <c r="A24" s="130" t="str">
         <f>IF(AND(E24=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E22)+1,"##")&amp;"]")</f>
         <v>[TC-14]</v>
       </c>
-      <c r="B24" s="116" t="s">
+      <c r="B24" s="136" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="112" t="s">
+      <c r="E24" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="116" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="110" t="s">
+      <c r="F24" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="113">
+      <c r="G24" s="133">
         <f ca="1" t="shared" ref="G24:G34" si="1">TODAY()</f>
-        <v>45646</v>
-      </c>
-      <c r="H24" s="110" t="str">
-        <f t="shared" ref="H24:H34" si="2">$B$3</f>
+        <v>45671</v>
+      </c>
+      <c r="H24" s="130" t="str">
+        <f t="shared" ref="H24:H35" si="2">$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I24" s="140"/>
-    </row>
-    <row r="25" ht="89.25" customHeight="1" spans="1:9">
-      <c r="A25" s="110" t="str">
+      <c r="I24" s="171"/>
+      <c r="J24" s="98"/>
+    </row>
+    <row r="25" ht="89.25" customHeight="1" spans="1:10">
+      <c r="A25" s="130" t="str">
         <f>IF(AND(E25=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E24)+1,"##")&amp;"]")</f>
         <v>[TC-15]</v>
       </c>
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="136" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="112" t="s">
+      <c r="E25" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="110" t="s">
+      <c r="F25" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="113">
+      <c r="G25" s="133">
         <f ca="1" t="shared" si="1"/>
-        <v>45646</v>
-      </c>
-      <c r="H25" s="110" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H25" s="130" t="str">
         <f t="shared" si="2"/>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I25" s="140"/>
-    </row>
-    <row r="26" ht="89.25" spans="1:9">
-      <c r="A26" s="110" t="str">
+      <c r="I25" s="171"/>
+      <c r="J25" s="98"/>
+    </row>
+    <row r="26" ht="89.25" spans="1:10">
+      <c r="A26" s="130" t="str">
         <f>IF(AND(E26=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E25)+1,"##")&amp;"]")</f>
         <v>[TC-16]</v>
       </c>
-      <c r="B26" s="116" t="s">
+      <c r="B26" s="136" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="112" t="s">
+      <c r="E26" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="116" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="110" t="s">
+      <c r="F26" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="113">
+      <c r="G26" s="133">
         <f ca="1" t="shared" si="1"/>
-        <v>45646</v>
-      </c>
-      <c r="H26" s="110" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H26" s="130" t="str">
         <f t="shared" si="2"/>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I26" s="140"/>
-    </row>
-    <row r="27" ht="89.25" customHeight="1" spans="1:9">
-      <c r="A27" s="110" t="str">
+      <c r="I26" s="171"/>
+      <c r="J26" s="98"/>
+    </row>
+    <row r="27" ht="89.25" customHeight="1" spans="1:10">
+      <c r="A27" s="130" t="str">
         <f>IF(AND(E27=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E26)+1,"##")&amp;"]")</f>
         <v>[TC-17]</v>
       </c>
-      <c r="B27" s="116" t="s">
+      <c r="B27" s="136" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="112" t="s">
+      <c r="E27" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="116" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="110" t="s">
+      <c r="F27" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="113">
+      <c r="G27" s="133">
         <f ca="1" t="shared" si="1"/>
-        <v>45646</v>
-      </c>
-      <c r="H27" s="110" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H27" s="130" t="str">
         <f t="shared" si="2"/>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I27" s="140"/>
-    </row>
-    <row r="28" ht="76.5" spans="1:9">
-      <c r="A28" s="110" t="str">
+      <c r="I27" s="171"/>
+      <c r="J27" s="98"/>
+    </row>
+    <row r="28" ht="76.5" spans="1:10">
+      <c r="A28" s="130" t="str">
         <f>IF(AND(E28=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E27)+1,"##")&amp;"]")</f>
         <v>[TC-18]</v>
       </c>
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="136" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="112" t="s">
+      <c r="E28" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="116" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="110" t="s">
+      <c r="F28" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="113">
+      <c r="G28" s="133">
         <f ca="1" t="shared" si="1"/>
-        <v>45646</v>
-      </c>
-      <c r="H28" s="110" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H28" s="130" t="str">
         <f t="shared" si="2"/>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I28" s="140"/>
-    </row>
-    <row r="29" ht="76.5" customHeight="1" spans="1:9">
-      <c r="A29" s="110" t="str">
+      <c r="I28" s="171"/>
+      <c r="J28" s="98"/>
+    </row>
+    <row r="29" ht="76.5" customHeight="1" spans="1:10">
+      <c r="A29" s="130" t="str">
         <f>IF(AND(E29=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E28)+1,"##")&amp;"]")</f>
         <v>[TC-19]</v>
       </c>
-      <c r="B29" s="116" t="s">
+      <c r="B29" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="112" t="s">
+      <c r="E29" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="110" t="s">
+      <c r="F29" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="113">
+      <c r="G29" s="133">
         <f ca="1" t="shared" si="1"/>
-        <v>45646</v>
-      </c>
-      <c r="H29" s="110" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H29" s="130" t="str">
         <f t="shared" si="2"/>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I29" s="140"/>
-    </row>
-    <row r="30" ht="102" spans="1:9">
-      <c r="A30" s="110" t="str">
+      <c r="I29" s="171"/>
+      <c r="J29" s="98"/>
+    </row>
+    <row r="30" ht="102" spans="1:10">
+      <c r="A30" s="130" t="str">
         <f>IF(AND(E30=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E29)+1,"##")&amp;"]")</f>
         <v>[TC-20]</v>
       </c>
-      <c r="B30" s="116" t="s">
+      <c r="B30" s="136" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="112" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="116" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="110" t="s">
+      <c r="E30" s="136" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="113">
+      <c r="G30" s="133">
         <f ca="1" t="shared" si="1"/>
-        <v>45646</v>
-      </c>
-      <c r="H30" s="110" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H30" s="130" t="str">
         <f t="shared" si="2"/>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I30" s="140"/>
-    </row>
-    <row r="31" ht="76.5" spans="1:9">
-      <c r="A31" s="110" t="str">
+      <c r="I30" s="171"/>
+      <c r="J30" s="98"/>
+    </row>
+    <row r="31" ht="76.5" spans="1:10">
+      <c r="A31" s="130" t="str">
         <f>IF(AND(E31=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E30)+1,"##")&amp;"]")</f>
         <v>[TC-21]</v>
       </c>
-      <c r="B31" s="116" t="s">
+      <c r="B31" s="136" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="112" t="s">
+      <c r="E31" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="116" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="110" t="s">
+      <c r="F31" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="113">
+      <c r="G31" s="133">
         <f ca="1" t="shared" si="1"/>
-        <v>45646</v>
-      </c>
-      <c r="H31" s="110" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H31" s="130" t="str">
         <f t="shared" si="2"/>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I31" s="140"/>
-    </row>
-    <row r="32" ht="89.25" customHeight="1" spans="1:9">
-      <c r="A32" s="110" t="str">
+      <c r="I31" s="171"/>
+      <c r="J31" s="98"/>
+    </row>
+    <row r="32" ht="89.25" customHeight="1" spans="1:10">
+      <c r="A32" s="130" t="str">
         <f>IF(AND(E32=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E31)+1,"##")&amp;"]")</f>
         <v>[TC-22]</v>
       </c>
-      <c r="B32" s="116" t="s">
+      <c r="B32" s="136" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="112" t="s">
+      <c r="E32" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="116" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="110" t="s">
+      <c r="F32" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="113">
+      <c r="G32" s="133">
         <f ca="1" t="shared" si="1"/>
-        <v>45646</v>
-      </c>
-      <c r="H32" s="110" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H32" s="130" t="str">
         <f t="shared" si="2"/>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I32" s="140"/>
-    </row>
-    <row r="33" ht="89.25" spans="1:9">
-      <c r="A33" s="110" t="str">
+      <c r="I32" s="171" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" s="98" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" ht="89.25" spans="1:10">
+      <c r="A33" s="130" t="str">
         <f>IF(AND(E33=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E32)+1,"##")&amp;"]")</f>
         <v>[TC-23]</v>
       </c>
-      <c r="B33" s="116" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="112" t="s">
+      <c r="B33" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="116" t="s">
+      <c r="C33" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="132" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="110" t="s">
+      <c r="E33" s="136" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="113">
+      <c r="G33" s="133">
         <f ca="1" t="shared" si="1"/>
-        <v>45646</v>
-      </c>
-      <c r="H33" s="110" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H33" s="130" t="str">
         <f t="shared" si="2"/>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I33" s="140"/>
-    </row>
-    <row r="34" ht="76.5" customHeight="1" spans="1:9">
-      <c r="A34" s="110" t="str">
+      <c r="I33" s="171" t="s">
+        <v>94</v>
+      </c>
+      <c r="J33" s="98" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" ht="76.5" customHeight="1" spans="1:10">
+      <c r="A34" s="130" t="str">
         <f>IF(AND(E34=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E33)+1,"##")&amp;"]")</f>
         <v>[TC-24]</v>
       </c>
-      <c r="B34" s="116" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="112" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="116" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="110" t="s">
+      <c r="B34" s="136" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="132" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="113">
+      <c r="G34" s="133">
         <f ca="1" t="shared" si="1"/>
-        <v>45646</v>
-      </c>
-      <c r="H34" s="110" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H34" s="130" t="str">
         <f t="shared" si="2"/>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I34" s="140"/>
-    </row>
-    <row r="35" ht="102" spans="1:9">
-      <c r="A35" s="110" t="str">
+      <c r="I34" s="171"/>
+      <c r="J34" s="98"/>
+    </row>
+    <row r="35" ht="102" spans="1:10">
+      <c r="A35" s="130" t="str">
         <f>IF(AND(E35=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E34)+1,"##")&amp;"]")</f>
         <v>[TC-25]</v>
       </c>
-      <c r="B35" s="117" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="112" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" s="117" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="110" t="s">
+      <c r="B35" s="137" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="132" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="113">
-        <f ca="1" t="shared" ref="G35:G38" si="3">TODAY()</f>
-        <v>45646</v>
-      </c>
-      <c r="H35" s="110" t="str">
+      <c r="G35" s="133">
+        <f ca="1" t="shared" ref="G35:G39" si="3">TODAY()</f>
+        <v>45671</v>
+      </c>
+      <c r="H35" s="130" t="str">
+        <f t="shared" si="2"/>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I35" s="173" t="s">
+        <v>102</v>
+      </c>
+      <c r="J35" s="98" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:10">
+      <c r="A36" s="138" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="139"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="139"/>
+      <c r="E36" s="139"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="139"/>
+      <c r="H36" s="139"/>
+      <c r="I36" s="139"/>
+      <c r="J36" s="98"/>
+    </row>
+    <row r="37" ht="51" spans="1:10">
+      <c r="A37" s="140" t="str">
+        <f>IF(AND(E37=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E35)+1,"##")&amp;"]")</f>
+        <v>[TC-27]</v>
+      </c>
+      <c r="B37" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="136" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="142" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="136" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="143" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="144">
+        <f ca="1" t="shared" si="3"/>
+        <v>45671</v>
+      </c>
+      <c r="H37" s="143" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I35" s="150"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="118" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="119"/>
-      <c r="I36" s="151"/>
-    </row>
-    <row r="37" ht="51" spans="1:9">
-      <c r="A37" s="120" t="str">
-        <f>IF(AND(E37=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E35)+1,"##")&amp;"]")</f>
+      <c r="I37" s="171"/>
+      <c r="J37" s="98"/>
+    </row>
+    <row r="38" ht="51" customHeight="1" spans="1:10">
+      <c r="A38" s="130" t="str">
+        <f>IF(AND(E38=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E37)+1,"##")&amp;"]")</f>
         <v>[TC-27]</v>
       </c>
-      <c r="B37" s="121" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="122" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="F37" s="123" t="s">
+      <c r="B38" s="145" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="145" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="146" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="145" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="124">
+      <c r="G38" s="148">
         <f ca="1" t="shared" si="3"/>
-        <v>45646</v>
-      </c>
-      <c r="H37" s="123" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H38" s="147" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I37" s="140"/>
-    </row>
-    <row r="38" ht="51" customHeight="1" spans="1:9">
-      <c r="A38" s="110" t="str">
-        <f>IF(AND(E38=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E37)+1,"##")&amp;"]")</f>
-        <v>[TC-27]</v>
-      </c>
-      <c r="B38" s="125" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="125" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="126" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="125" t="s">
+      <c r="I38" s="174"/>
+      <c r="J38" s="98"/>
+    </row>
+    <row r="39" ht="63.75" spans="1:10">
+      <c r="A39" s="130" t="str">
+        <f>IF(AND(E39=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E37)+1,"##")&amp;"]")</f>
+        <v>[TC-28]</v>
+      </c>
+      <c r="B39" s="149" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="149" t="s">
         <v>106</v>
       </c>
-      <c r="F38" s="120" t="s">
+      <c r="D39" s="132" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="137" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G38" s="127">
+      <c r="G39" s="133">
         <f ca="1" t="shared" si="3"/>
-        <v>45646</v>
-      </c>
-      <c r="H38" s="120" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H39" s="130" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I38" s="152"/>
-    </row>
-    <row r="39" ht="63.75" spans="1:9">
-      <c r="A39" s="110" t="str">
-        <f>IF(AND(E39=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E37)+1,"##")&amp;"]")</f>
-        <v>[TC-28]</v>
-      </c>
-      <c r="B39" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="112" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="F39" s="110" t="s">
+      <c r="I39" s="171"/>
+      <c r="J39" s="98"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:10">
+      <c r="A40" s="134" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="150"/>
+      <c r="C40" s="150"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="98"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="143"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="142"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="143"/>
+      <c r="G41" s="144"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="175"/>
+      <c r="J41" s="98"/>
+    </row>
+    <row r="42" ht="76.5" customHeight="1" spans="1:10">
+      <c r="A42" s="130" t="str">
+        <f>IF(AND(E42=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E40)+1,"##")&amp;"]")</f>
+        <v>[TC-30]</v>
+      </c>
+      <c r="B42" s="145" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="145" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="151" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="145" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="113">
-        <f ca="1">TODAY()</f>
-        <v>45646</v>
-      </c>
-      <c r="H39" s="110" t="str">
+      <c r="G42" s="148">
+        <f ca="1" t="shared" ref="G42:G55" si="4">TODAY()</f>
+        <v>45671</v>
+      </c>
+      <c r="H42" s="147" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I39" s="140"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:9">
-      <c r="A40" s="114" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="129"/>
-      <c r="C40" s="129"/>
-      <c r="D40" s="129"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="129"/>
-      <c r="G40" s="129"/>
-      <c r="H40" s="129"/>
-      <c r="I40" s="153"/>
-    </row>
-    <row r="41" ht="45" spans="1:9">
-      <c r="A41" s="123" t="str">
-        <f>IF(AND(E41=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E39)+1,"##")&amp;"]")</f>
+      <c r="I42" s="174"/>
+      <c r="J42" s="98"/>
+    </row>
+    <row r="43" ht="63.75" spans="1:10">
+      <c r="A43" s="130" t="str">
+        <f>IF(AND(E43=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E41)+1,"##")&amp;"]")</f>
         <v>[TC-30]</v>
       </c>
-      <c r="B41" s="116" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="122" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="116" t="s">
-        <v>113</v>
-      </c>
-      <c r="F41" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="124">
-        <f ca="1">TODAY()</f>
-        <v>45646</v>
-      </c>
-      <c r="H41" s="123" t="str">
+      <c r="B43" s="136" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="145" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="142" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" s="130" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="133">
+        <f ca="1" t="shared" si="4"/>
+        <v>45671</v>
+      </c>
+      <c r="H43" s="130" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I41" s="154"/>
-    </row>
-    <row r="42" ht="76.5" customHeight="1" spans="1:9">
-      <c r="A42" s="120" t="str">
-        <f>IF(AND(E42=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E39)+1,"##")&amp;"]")</f>
+      <c r="I43" s="171" t="s">
+        <v>123</v>
+      </c>
+      <c r="J43" s="98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" ht="60" spans="1:10">
+      <c r="A44" s="130" t="str">
+        <f>IF(AND(E44=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E42)+1,"##")&amp;"]")</f>
         <v>[TC-31]</v>
       </c>
-      <c r="B42" s="125" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="125" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="130" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" s="120" t="s">
+      <c r="B44" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="145" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="142" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="136" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G42" s="127">
-        <f ca="1" t="shared" ref="G42:G50" si="4">TODAY()</f>
-        <v>45646</v>
-      </c>
-      <c r="H42" s="120" t="str">
-        <f t="shared" ref="H42:H50" si="5">$B$3</f>
-        <v>Nguyễn Thị Bích Ngọc</v>
-      </c>
-      <c r="I42" s="152"/>
-    </row>
-    <row r="43" ht="45" spans="1:9">
-      <c r="A43" s="110" t="str">
-        <f>IF(AND(E43=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E42)+1,"##")&amp;"]")</f>
-        <v>[TC-31]</v>
-      </c>
-      <c r="B43" s="116" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="125" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="122" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="116" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" s="110" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="113">
+      <c r="G44" s="133">
         <f ca="1" t="shared" si="4"/>
-        <v>45646</v>
-      </c>
-      <c r="H43" s="110" t="str">
-        <f t="shared" si="5"/>
-        <v>Nguyễn Thị Bích Ngọc</v>
-      </c>
-      <c r="I43" s="140"/>
-    </row>
-    <row r="44" ht="63.75" spans="1:9">
-      <c r="A44" s="110" t="str">
-        <f>IF(AND(E44=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E43)+1,"##")&amp;"]")</f>
-        <v>[TC-32]</v>
-      </c>
-      <c r="B44" s="116" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="125" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="122" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" s="131" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44" s="110" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="113">
-        <f ca="1" t="shared" si="4"/>
-        <v>45646</v>
-      </c>
-      <c r="H44" s="110" t="str">
-        <f t="shared" si="5"/>
-        <v>Nguyễn Thị Bích Ngọc</v>
-      </c>
-      <c r="I44" s="140"/>
-    </row>
-    <row r="45" ht="60" spans="1:9">
-      <c r="A45" s="110" t="str">
-        <f>IF(AND(E45=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E44)+1,"##")&amp;"]")</f>
-        <v>[TC-33]</v>
-      </c>
-      <c r="B45" s="132" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="125" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="122" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="116" t="s">
-        <v>127</v>
-      </c>
-      <c r="F45" s="110" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="113">
-        <f ca="1" t="shared" si="4"/>
-        <v>45646</v>
-      </c>
-      <c r="H45" s="110" t="str">
-        <f t="shared" si="5"/>
-        <v>Nguyễn Thị Bích Ngọc</v>
-      </c>
-      <c r="I45" s="140"/>
-    </row>
-    <row r="46" ht="51" spans="1:9">
-      <c r="A46" s="110" t="str">
-        <f>IF(AND(E46=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E44)+1,"##")&amp;"]")</f>
-        <v>[TC-34]</v>
-      </c>
-      <c r="B46" s="132" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="125" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" s="122" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" s="132" t="s">
-        <v>130</v>
-      </c>
-      <c r="F46" s="110" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="113">
-        <f ca="1" t="shared" si="4"/>
-        <v>45646</v>
-      </c>
-      <c r="H46" s="110" t="str">
-        <f t="shared" si="5"/>
-        <v>Nguyễn Thị Bích Ngọc</v>
-      </c>
-      <c r="I46" s="140"/>
-    </row>
-    <row r="47" ht="51" spans="1:9">
-      <c r="A47" s="110" t="str">
-        <f>IF(AND(E47=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E46)+1,"##")&amp;"]")</f>
-        <v>[TC-35]</v>
-      </c>
-      <c r="B47" s="133" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="116" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" s="134" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" s="133" t="s">
-        <v>134</v>
-      </c>
-      <c r="F47" s="110" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="113">
-        <f ca="1" t="shared" si="4"/>
-        <v>45646</v>
-      </c>
-      <c r="H47" s="110" t="str">
-        <f t="shared" si="5"/>
-        <v>Nguyễn Thị Bích Ngọc</v>
-      </c>
-      <c r="I47" s="150"/>
-    </row>
-    <row r="48" ht="51" spans="1:9">
-      <c r="A48" s="110" t="str">
-        <f>IF(AND(E48=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E47)+1,"##")&amp;"]")</f>
-        <v>[TC-36]</v>
-      </c>
-      <c r="B48" s="133" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" s="116" t="s">
-        <v>136</v>
-      </c>
-      <c r="D48" s="134" t="s">
-        <v>137</v>
-      </c>
-      <c r="E48" s="133" t="s">
-        <v>138</v>
-      </c>
-      <c r="F48" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="124">
-        <f ca="1" t="shared" si="4"/>
-        <v>45646</v>
-      </c>
-      <c r="H48" s="123" t="str">
-        <f t="shared" si="5"/>
-        <v>Nguyễn Thị Bích Ngọc</v>
-      </c>
-      <c r="I48" s="140"/>
-    </row>
-    <row r="49" ht="51" spans="1:9">
-      <c r="A49" s="110" t="str">
-        <f>IF(AND(E49=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E48)+1,"##")&amp;"]")</f>
-        <v>[TC-37]</v>
-      </c>
-      <c r="B49" s="133" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="116" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="134" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49" s="133" t="s">
-        <v>141</v>
-      </c>
-      <c r="F49" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="124">
-        <f ca="1" t="shared" si="4"/>
-        <v>45646</v>
-      </c>
-      <c r="H49" s="123" t="str">
-        <f t="shared" si="5"/>
-        <v>Nguyễn Thị Bích Ngọc</v>
-      </c>
-      <c r="I49" s="140"/>
-    </row>
-    <row r="50" ht="76.5" spans="1:9">
-      <c r="A50" s="110" t="str">
-        <f>IF(AND(E50=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E49)+1,"##")&amp;"]")</f>
-        <v>[TC-38]</v>
-      </c>
-      <c r="B50" s="135" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="116" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" s="134" t="s">
-        <v>143</v>
-      </c>
-      <c r="E50" s="133" t="s">
-        <v>144</v>
-      </c>
-      <c r="F50" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="124">
-        <f ca="1" t="shared" ref="G50:G59" si="6">TODAY()</f>
-        <v>45646</v>
-      </c>
-      <c r="H50" s="123" t="str">
-        <f t="shared" si="5"/>
-        <v>Nguyễn Thị Bích Ngọc</v>
-      </c>
-      <c r="I50" s="140"/>
-    </row>
-    <row r="51" ht="51" spans="1:9">
-      <c r="A51" s="110" t="str">
-        <f>IF(AND(E51=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E50)+1,"##")&amp;"]")</f>
-        <v>[TC-39]</v>
-      </c>
-      <c r="B51" s="131" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="134" t="s">
-        <v>146</v>
-      </c>
-      <c r="E51" s="133" t="s">
-        <v>147</v>
-      </c>
-      <c r="F51" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="124">
-        <f ca="1" t="shared" si="6"/>
-        <v>45646</v>
-      </c>
-      <c r="H51" s="123" t="str">
-        <f t="shared" ref="H51:H60" si="7">$B$3</f>
-        <v>Nguyễn Thị Bích Ngọc</v>
-      </c>
-      <c r="I51" s="140"/>
-    </row>
-    <row r="52" ht="60" spans="1:9">
-      <c r="A52" s="110" t="str">
-        <f>IF(AND(E52=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E51)+1,"##")&amp;"]")</f>
-        <v>[TC-40]</v>
-      </c>
-      <c r="B52" s="135" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="D52" s="134" t="s">
-        <v>149</v>
-      </c>
-      <c r="E52" s="133" t="s">
-        <v>150</v>
-      </c>
-      <c r="F52" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="124">
-        <f ca="1" t="shared" si="6"/>
-        <v>45646</v>
-      </c>
-      <c r="H52" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v>Nguyễn Thị Bích Ngọc</v>
-      </c>
-      <c r="I52" s="140"/>
-    </row>
-    <row r="53" ht="51" spans="1:9">
-      <c r="A53" s="110" t="str">
-        <f>IF(AND(E53=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E52)+1,"##")&amp;"]")</f>
-        <v>[TC-41]</v>
-      </c>
-      <c r="B53" s="135" t="s">
-        <v>151</v>
-      </c>
-      <c r="C53" s="116" t="s">
-        <v>152</v>
-      </c>
-      <c r="D53" s="134" t="s">
-        <v>153</v>
-      </c>
-      <c r="E53" s="133" t="s">
-        <v>154</v>
-      </c>
-      <c r="F53" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="124">
-        <f ca="1" t="shared" si="6"/>
-        <v>45646</v>
-      </c>
-      <c r="H53" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v>Nguyễn Thị Bích Ngọc</v>
-      </c>
-      <c r="I53" s="140"/>
-    </row>
-    <row r="54" ht="63.75" spans="1:9">
-      <c r="A54" s="110" t="str">
-        <f>IF(AND(E54=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E53)+1,"##")&amp;"]")</f>
-        <v>[TC-42]</v>
-      </c>
-      <c r="B54" s="131" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" s="116" t="s">
-        <v>156</v>
-      </c>
-      <c r="D54" s="134" t="s">
-        <v>157</v>
-      </c>
-      <c r="E54" s="133" t="s">
-        <v>158</v>
-      </c>
-      <c r="F54" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="124">
-        <f ca="1" t="shared" si="6"/>
-        <v>45646</v>
-      </c>
-      <c r="H54" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v>Nguyễn Thị Bích Ngọc</v>
-      </c>
-      <c r="I54" s="140"/>
-    </row>
-    <row r="55" ht="51" customHeight="1" spans="1:9">
-      <c r="A55" s="110" t="str">
-        <f>IF(AND(E55=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E54)+1,"##")&amp;"]")</f>
-        <v>[TC-43]</v>
-      </c>
-      <c r="B55" s="133" t="s">
-        <v>159</v>
-      </c>
-      <c r="C55" s="117" t="s">
-        <v>156</v>
-      </c>
-      <c r="D55" s="134" t="s">
-        <v>160</v>
-      </c>
-      <c r="E55" s="133" t="s">
-        <v>161</v>
-      </c>
-      <c r="F55" s="136" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="137">
-        <f ca="1" t="shared" si="6"/>
-        <v>45646</v>
-      </c>
-      <c r="H55" s="136" t="str">
-        <f t="shared" si="7"/>
-        <v>Nguyễn Thị Bích Ngọc</v>
-      </c>
-      <c r="I55" s="150"/>
-    </row>
-    <row r="56" ht="51" spans="1:9">
-      <c r="A56" s="110" t="str">
-        <f>IF(AND(E56=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E55)+1,"##")&amp;"]")</f>
-        <v>[TC-44]</v>
-      </c>
-      <c r="B56" s="138" t="s">
-        <v>162</v>
-      </c>
-      <c r="C56" s="117" t="s">
-        <v>163</v>
-      </c>
-      <c r="D56" s="134" t="s">
-        <v>164</v>
-      </c>
-      <c r="E56" s="138" t="s">
-        <v>165</v>
-      </c>
-      <c r="F56" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="124">
-        <f ca="1" t="shared" si="6"/>
-        <v>45646</v>
-      </c>
-      <c r="H56" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v>Nguyễn Thị Bích Ngọc</v>
-      </c>
-      <c r="I56" s="140"/>
-    </row>
-    <row r="57" ht="51" spans="1:9">
-      <c r="A57" s="110" t="str">
-        <f>IF(AND(E57=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E56)+1,"##")&amp;"]")</f>
-        <v>[TC-45]</v>
-      </c>
-      <c r="B57" s="138" t="s">
-        <v>166</v>
-      </c>
-      <c r="C57" s="117" t="s">
-        <v>163</v>
-      </c>
-      <c r="D57" s="134" t="s">
-        <v>167</v>
-      </c>
-      <c r="E57" s="138" t="s">
-        <v>168</v>
-      </c>
-      <c r="F57" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="124">
-        <f ca="1" t="shared" si="6"/>
-        <v>45646</v>
-      </c>
-      <c r="H57" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v>Nguyễn Thị Bích Ngọc</v>
-      </c>
-      <c r="I57" s="140"/>
-    </row>
-    <row r="58" ht="45" spans="1:9">
-      <c r="A58" s="110" t="str">
-        <f>IF(AND(E58=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E57)+1,"##")&amp;"]")</f>
-        <v>[TC-46]</v>
-      </c>
-      <c r="B58" s="132" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="117" t="s">
-        <v>163</v>
-      </c>
-      <c r="D58" s="134" t="s">
-        <v>170</v>
-      </c>
-      <c r="E58" s="138" t="s">
-        <v>171</v>
-      </c>
-      <c r="F58" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="124">
-        <f ca="1" t="shared" si="6"/>
-        <v>45646</v>
-      </c>
-      <c r="H58" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v>Nguyễn Thị Bích Ngọc</v>
-      </c>
-      <c r="I58" s="140"/>
-    </row>
-    <row r="59" ht="63.75" spans="1:9">
-      <c r="A59" s="110" t="str">
-        <f>IF(AND(E59=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E58)+1,"##")&amp;"]")</f>
-        <v>[TC-47]</v>
-      </c>
-      <c r="B59" s="132" t="s">
-        <v>172</v>
-      </c>
-      <c r="C59" s="117" t="s">
-        <v>163</v>
-      </c>
-      <c r="D59" s="134" t="s">
-        <v>173</v>
-      </c>
-      <c r="E59" s="138" t="s">
-        <v>174</v>
-      </c>
-      <c r="F59" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="124">
-        <f ca="1" t="shared" si="6"/>
-        <v>45646</v>
-      </c>
-      <c r="H59" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v>Nguyễn Thị Bích Ngọc</v>
-      </c>
-      <c r="I59" s="140"/>
-    </row>
-    <row r="60" ht="76.5" spans="1:9">
-      <c r="A60" s="110"/>
-      <c r="B60" s="132" t="s">
-        <v>175</v>
-      </c>
-      <c r="C60" s="117" t="s">
-        <v>163</v>
-      </c>
-      <c r="D60" s="134" t="s">
-        <v>176</v>
-      </c>
-      <c r="E60" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F60" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="124"/>
-      <c r="H60" s="123"/>
-      <c r="I60" s="140"/>
-    </row>
-    <row r="61" ht="51" spans="1:9">
-      <c r="A61" s="110" t="str">
-        <f>IF(AND(E61=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E59)+1,"##")&amp;"]")</f>
-        <v>[TC-49]</v>
-      </c>
-      <c r="B61" s="131" t="s">
-        <v>178</v>
-      </c>
-      <c r="C61" s="117" t="s">
-        <v>163</v>
-      </c>
-      <c r="D61" s="134" t="s">
-        <v>179</v>
-      </c>
-      <c r="E61" s="138" t="s">
-        <v>180</v>
-      </c>
-      <c r="F61" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="124">
-        <f ca="1">TODAY()</f>
-        <v>45646</v>
-      </c>
-      <c r="H61" s="123" t="str">
+        <v>45671</v>
+      </c>
+      <c r="H44" s="130" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I61" s="140"/>
-    </row>
-    <row r="62" ht="63.75" spans="1:9">
-      <c r="A62" s="110" t="str">
-        <f>IF(AND(E62=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E61)+1,"##")&amp;"]")</f>
-        <v>[TC-50]</v>
-      </c>
-      <c r="B62" s="132" t="s">
-        <v>181</v>
-      </c>
-      <c r="C62" s="117" t="s">
-        <v>163</v>
-      </c>
-      <c r="D62" s="134" t="s">
-        <v>182</v>
-      </c>
-      <c r="E62" s="138" t="s">
-        <v>183</v>
-      </c>
-      <c r="F62" s="139" t="s">
+      <c r="I44" s="171"/>
+      <c r="J44" s="98"/>
+    </row>
+    <row r="45" ht="51" spans="1:10">
+      <c r="A45" s="130" t="str">
+        <f>IF(AND(E45=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E43)+1,"##")&amp;"]")</f>
+        <v>[TC-32]</v>
+      </c>
+      <c r="B45" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="145" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="142" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G62" s="124">
-        <f ca="1">TODAY()</f>
-        <v>45646</v>
-      </c>
-      <c r="H62" s="123" t="str">
+      <c r="G45" s="133">
+        <f ca="1" t="shared" si="4"/>
+        <v>45671</v>
+      </c>
+      <c r="H45" s="130" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I62" s="140"/>
-    </row>
-    <row r="63" ht="76.5" spans="1:9">
-      <c r="A63" s="110" t="str">
+      <c r="I45" s="171"/>
+      <c r="J45" s="98"/>
+    </row>
+    <row r="46" ht="51" spans="1:10">
+      <c r="A46" s="130" t="str">
+        <f>IF(AND(E46=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E45)+1,"##")&amp;"]")</f>
+        <v>[TC-33]</v>
+      </c>
+      <c r="B46" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="136" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="152" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="153" t="s">
+        <v>134</v>
+      </c>
+      <c r="F46" s="143" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="144">
+        <f ca="1" t="shared" si="4"/>
+        <v>45671</v>
+      </c>
+      <c r="H46" s="143" t="str">
+        <f>$B$3</f>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I46" s="171"/>
+      <c r="J46" s="98"/>
+    </row>
+    <row r="47" ht="51" spans="1:10">
+      <c r="A47" s="130" t="str">
+        <f>IF(AND(E47=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E46)+1,"##")&amp;"]")</f>
+        <v>[TC-34]</v>
+      </c>
+      <c r="B47" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="136" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="152" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="153" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" s="143" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="144">
+        <f ca="1" t="shared" si="4"/>
+        <v>45671</v>
+      </c>
+      <c r="H47" s="143" t="str">
+        <f>$B$3</f>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I47" s="171"/>
+      <c r="J47" s="98"/>
+    </row>
+    <row r="48" ht="51" customHeight="1" spans="1:10">
+      <c r="A48" s="130" t="str">
+        <f>IF(AND(E48=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E47)+1,"##")&amp;"]")</f>
+        <v>[TC-35]</v>
+      </c>
+      <c r="B48" s="153" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="137" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="152" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="153" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="155">
+        <f ca="1" t="shared" si="4"/>
+        <v>45671</v>
+      </c>
+      <c r="H48" s="154" t="str">
+        <f>$B$3</f>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I48" s="173"/>
+      <c r="J48" s="98"/>
+    </row>
+    <row r="49" ht="45" spans="1:10">
+      <c r="A49" s="130" t="str">
+        <f>IF(AND(E49=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E48)+1,"##")&amp;"]")</f>
+        <v>[TC-36]</v>
+      </c>
+      <c r="B49" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="137" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="152" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="95" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="144">
+        <f ca="1" t="shared" si="4"/>
+        <v>45671</v>
+      </c>
+      <c r="H49" s="143" t="str">
+        <f>$B$3</f>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I49" s="171"/>
+      <c r="J49" s="98"/>
+    </row>
+    <row r="50" ht="63.75" spans="1:10">
+      <c r="A50" s="130" t="str">
+        <f>IF(AND(E50=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E49)+1,"##")&amp;"]")</f>
+        <v>[TC-37]</v>
+      </c>
+      <c r="B50" s="95" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="137" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="152" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="F50" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="144">
+        <f ca="1" t="shared" si="4"/>
+        <v>45671</v>
+      </c>
+      <c r="H50" s="143" t="str">
+        <f>$B$3</f>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I50" s="171"/>
+      <c r="J50" s="98"/>
+    </row>
+    <row r="51" ht="76.5" spans="1:10">
+      <c r="A51" s="130" t="str">
+        <f>IF(AND(E51=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E50)+1,"##")&amp;"]")</f>
+        <v>[TC-38]</v>
+      </c>
+      <c r="B51" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="137" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="152" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="F51" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="144">
+        <f ca="1" t="shared" si="4"/>
+        <v>45671</v>
+      </c>
+      <c r="H51" s="143" t="str">
+        <f>$B$3</f>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I51" s="171"/>
+      <c r="J51" s="98"/>
+    </row>
+    <row r="52" ht="63.75" spans="1:10">
+      <c r="A52" s="130" t="str">
+        <f>IF(AND(E52=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E51)+1,"##")&amp;"]")</f>
+        <v>[TC-39]</v>
+      </c>
+      <c r="B52" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="137" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="152" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="F52" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="144">
+        <f ca="1" t="shared" si="4"/>
+        <v>45671</v>
+      </c>
+      <c r="H52" s="143" t="str">
+        <f>$B$3</f>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I52" s="171"/>
+      <c r="J52" s="98"/>
+    </row>
+    <row r="53" ht="51" spans="1:10">
+      <c r="A53" s="130" t="str">
+        <f>IF(AND(E53=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E52)+1,"##")&amp;"]")</f>
+        <v>[TC-40]</v>
+      </c>
+      <c r="B53" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="152" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="F53" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="144">
+        <f ca="1" t="shared" si="4"/>
+        <v>45671</v>
+      </c>
+      <c r="H53" s="143" t="str">
+        <f>$B$3</f>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I53" s="171"/>
+      <c r="J53" s="98"/>
+    </row>
+    <row r="54" ht="51" spans="1:10">
+      <c r="A54" s="130" t="str">
+        <f>IF(AND(E54=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E53)+1,"##")&amp;"]")</f>
+        <v>[TC-41]</v>
+      </c>
+      <c r="B54" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="95" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="152" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="F54" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="144">
+        <f ca="1" t="shared" si="4"/>
+        <v>45671</v>
+      </c>
+      <c r="H54" s="143" t="str">
+        <f>$B$3</f>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I54" s="171"/>
+      <c r="J54" s="98"/>
+    </row>
+    <row r="55" ht="63.75" spans="1:10">
+      <c r="A55" s="143" t="str">
+        <f>IF(AND(E55=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E54)+1,"##")&amp;"]")</f>
+        <v>[TC-42]</v>
+      </c>
+      <c r="B55" s="95" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="142" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="F55" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="144">
+        <f ca="1" t="shared" si="4"/>
+        <v>45671</v>
+      </c>
+      <c r="H55" s="143" t="str">
+        <f>$B$3</f>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I55" s="171"/>
+      <c r="J55" s="98"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="157" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" s="158"/>
+      <c r="C56" s="158"/>
+      <c r="D56" s="158"/>
+      <c r="E56" s="158"/>
+      <c r="F56" s="158"/>
+      <c r="G56" s="158"/>
+      <c r="H56" s="158"/>
+      <c r="I56" s="158"/>
+      <c r="J56" s="98"/>
+    </row>
+    <row r="57" ht="76.5" spans="1:10">
+      <c r="A57" s="159" t="str">
+        <f>IF(AND(E57=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E56)+1,"##")&amp;"]")</f>
+        <v>[TC-43]</v>
+      </c>
+      <c r="B57" s="95" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="142" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="F57" s="160" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="161">
+        <f ca="1">TODAY()</f>
+        <v>45671</v>
+      </c>
+      <c r="H57" s="143" t="str">
+        <f>$B$3</f>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I57" s="176"/>
+      <c r="J57" s="98"/>
+    </row>
+    <row r="58" ht="99" customHeight="1" spans="1:10">
+      <c r="A58" s="159" t="str">
+        <f>IF(AND(E58=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E57)+1,"##")&amp;"]")</f>
+        <v>[TC-44]</v>
+      </c>
+      <c r="B58" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="142" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="F58" s="160" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="161">
+        <f ca="1">TODAY()</f>
+        <v>45671</v>
+      </c>
+      <c r="H58" s="143" t="str">
+        <f>$B$3</f>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I58" s="176"/>
+      <c r="J58" s="98"/>
+    </row>
+    <row r="59" ht="102" spans="1:10">
+      <c r="A59" s="159" t="str">
+        <f>IF(AND(E59=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E58)+1,"##")&amp;"]")</f>
+        <v>[TC-45]</v>
+      </c>
+      <c r="B59" s="95" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" s="142" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" s="95" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" s="160" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="161">
+        <f ca="1" t="shared" ref="G59:G67" si="5">TODAY()</f>
+        <v>45671</v>
+      </c>
+      <c r="H59" s="143" t="str">
+        <f t="shared" ref="H59:H67" si="6">$B$3</f>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I59" s="176"/>
+      <c r="J59" s="98"/>
+    </row>
+    <row r="60" ht="89.25" spans="1:10">
+      <c r="A60" s="159" t="str">
+        <f>IF(AND(E60=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E59)+1,"##")&amp;"]")</f>
+        <v>[TC-46]</v>
+      </c>
+      <c r="B60" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="142" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" s="160" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="161">
+        <f ca="1" t="shared" si="5"/>
+        <v>45671</v>
+      </c>
+      <c r="H60" s="143" t="str">
+        <f t="shared" si="6"/>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I60" s="176"/>
+      <c r="J60" s="98"/>
+    </row>
+    <row r="61" ht="76.5" spans="1:10">
+      <c r="A61" s="159" t="str">
+        <f>IF(AND(E61=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E60)+1,"##")&amp;"]")</f>
+        <v>[TC-47]</v>
+      </c>
+      <c r="B61" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" s="142" t="s">
+        <v>183</v>
+      </c>
+      <c r="E61" s="95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F61" s="160" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="161">
+        <f ca="1" t="shared" si="5"/>
+        <v>45671</v>
+      </c>
+      <c r="H61" s="143" t="str">
+        <f t="shared" si="6"/>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I61" s="176"/>
+      <c r="J61" s="98"/>
+    </row>
+    <row r="62" ht="76.5" spans="1:10">
+      <c r="A62" s="159" t="str">
+        <f>IF(AND(E62=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E61)+1,"##")&amp;"]")</f>
+        <v>[TC-48]</v>
+      </c>
+      <c r="B62" s="95" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="D62" s="142" t="s">
+        <v>186</v>
+      </c>
+      <c r="E62" s="95" t="s">
+        <v>187</v>
+      </c>
+      <c r="F62" s="160" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="161">
+        <f ca="1" t="shared" si="5"/>
+        <v>45671</v>
+      </c>
+      <c r="H62" s="143" t="str">
+        <f t="shared" si="6"/>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I62" s="176"/>
+      <c r="J62" s="98"/>
+    </row>
+    <row r="63" ht="114.75" spans="1:10">
+      <c r="A63" s="159" t="str">
         <f>IF(AND(E63=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E62)+1,"##")&amp;"]")</f>
+        <v>[TC-49]</v>
+      </c>
+      <c r="B63" s="95" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" s="142" t="s">
+        <v>189</v>
+      </c>
+      <c r="E63" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="F63" s="160" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="161">
+        <f ca="1" t="shared" si="5"/>
+        <v>45671</v>
+      </c>
+      <c r="H63" s="143" t="str">
+        <f t="shared" si="6"/>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I63" s="176"/>
+      <c r="J63" s="98"/>
+    </row>
+    <row r="64" ht="89.25" spans="1:10">
+      <c r="A64" s="159" t="str">
+        <f>IF(AND(E64=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E63)+1,"##")&amp;"]")</f>
+        <v>[TC-50]</v>
+      </c>
+      <c r="B64" s="95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" s="95" t="s">
+        <v>192</v>
+      </c>
+      <c r="D64" s="142" t="s">
+        <v>193</v>
+      </c>
+      <c r="E64" s="95" t="s">
+        <v>194</v>
+      </c>
+      <c r="F64" s="160" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="161">
+        <f ca="1" t="shared" si="5"/>
+        <v>45671</v>
+      </c>
+      <c r="H64" s="143" t="str">
+        <f t="shared" si="6"/>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I64" s="176"/>
+      <c r="J64" s="98"/>
+    </row>
+    <row r="65" ht="76.5" spans="1:10">
+      <c r="A65" s="159" t="str">
+        <f>IF(AND(E65=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E64)+1,"##")&amp;"]")</f>
         <v>[TC-51]</v>
       </c>
-      <c r="B63" s="138" t="s">
-        <v>184</v>
-      </c>
-      <c r="C63" s="117" t="s">
-        <v>163</v>
-      </c>
-      <c r="D63" s="134" t="s">
-        <v>185</v>
-      </c>
-      <c r="E63" s="138" t="s">
-        <v>186</v>
-      </c>
-      <c r="F63" s="139" t="s">
-        <v>7</v>
-      </c>
-      <c r="G63" s="140"/>
-      <c r="H63" s="140"/>
-      <c r="I63" s="140"/>
-    </row>
-    <row r="64" ht="51" spans="1:9">
-      <c r="A64" s="110" t="str">
-        <f>IF(AND(E64=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E63)+1,"##")&amp;"]")</f>
+      <c r="B65" s="95" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" s="95" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" s="142" t="s">
+        <v>196</v>
+      </c>
+      <c r="E65" s="95" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" s="160" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="161">
+        <f ca="1" t="shared" si="5"/>
+        <v>45671</v>
+      </c>
+      <c r="H65" s="143" t="str">
+        <f t="shared" si="6"/>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I65" s="176"/>
+      <c r="J65" s="98"/>
+    </row>
+    <row r="66" ht="76.5" spans="1:10">
+      <c r="A66" s="159" t="str">
+        <f>IF(AND(E66=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E65)+1,"##")&amp;"]")</f>
         <v>[TC-52]</v>
       </c>
-      <c r="B64" s="138" t="s">
-        <v>187</v>
-      </c>
-      <c r="C64" s="132" t="s">
-        <v>188</v>
-      </c>
-      <c r="D64" s="134" t="s">
-        <v>189</v>
-      </c>
-      <c r="E64" s="138" t="s">
-        <v>190</v>
-      </c>
-      <c r="F64" s="139" t="s">
+      <c r="B66" s="95" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="D66" s="142" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" s="95" t="s">
+        <v>201</v>
+      </c>
+      <c r="F66" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="G64" s="140"/>
-      <c r="H64" s="140"/>
-      <c r="I64" s="140"/>
-    </row>
-    <row r="65" ht="51" spans="1:9">
-      <c r="A65" s="110" t="str">
-        <f>IF(AND(E65=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E64)+1,"##")&amp;"]")</f>
+      <c r="G66" s="161">
+        <f ca="1" t="shared" si="5"/>
+        <v>45671</v>
+      </c>
+      <c r="H66" s="143" t="str">
+        <f t="shared" si="6"/>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I66" s="176"/>
+      <c r="J66" s="98"/>
+    </row>
+    <row r="67" ht="76.5" spans="1:10">
+      <c r="A67" s="159" t="str">
+        <f>IF(AND(E67=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E66)+1,"##")&amp;"]")</f>
         <v>[TC-53]</v>
       </c>
-      <c r="B65" s="155" t="s">
-        <v>191</v>
-      </c>
-      <c r="C65" s="132" t="s">
+      <c r="B67" s="95" t="s">
+        <v>202</v>
+      </c>
+      <c r="C67" s="95" t="s">
         <v>192</v>
       </c>
-      <c r="D65" s="134" t="s">
-        <v>193</v>
-      </c>
-      <c r="E65" s="138" t="s">
-        <v>194</v>
-      </c>
-      <c r="F65" s="139" t="s">
+      <c r="D67" s="142" t="s">
+        <v>203</v>
+      </c>
+      <c r="E67" s="95" t="s">
+        <v>204</v>
+      </c>
+      <c r="F67" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="G65" s="140"/>
-      <c r="H65" s="140"/>
-      <c r="I65" s="140"/>
-    </row>
-    <row r="66" ht="45" spans="1:9">
-      <c r="A66" s="110" t="str">
-        <f>IF(AND(E66=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E65)+1,"##")&amp;"]")</f>
-        <v>[TC-54]</v>
-      </c>
-      <c r="B66" s="138" t="s">
-        <v>195</v>
-      </c>
-      <c r="C66" s="138" t="s">
-        <v>196</v>
-      </c>
-      <c r="D66" s="134" t="s">
-        <v>197</v>
-      </c>
-      <c r="E66" s="138" t="s">
-        <v>198</v>
-      </c>
-      <c r="F66" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="140"/>
-      <c r="H66" s="140"/>
-      <c r="I66" s="140"/>
-    </row>
-    <row r="67" ht="45" spans="1:9">
-      <c r="A67" s="110" t="str">
-        <f>IF(AND(E67=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E66)+1,"##")&amp;"]")</f>
-        <v>[TC-55]</v>
-      </c>
-      <c r="B67" s="138" t="s">
-        <v>199</v>
-      </c>
-      <c r="C67" s="138" t="s">
-        <v>200</v>
-      </c>
-      <c r="D67" s="134" t="s">
-        <v>201</v>
-      </c>
-      <c r="E67" s="138" t="s">
-        <v>202</v>
-      </c>
-      <c r="F67" s="139" t="s">
-        <v>7</v>
-      </c>
-      <c r="G67" s="140"/>
-      <c r="H67" s="140"/>
-      <c r="I67" s="140"/>
-    </row>
-    <row r="68" ht="63.75" spans="1:9">
-      <c r="A68" s="110" t="str">
+      <c r="G67" s="161">
+        <f ca="1" t="shared" si="5"/>
+        <v>45671</v>
+      </c>
+      <c r="H67" s="143" t="str">
+        <f t="shared" si="6"/>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I67" s="176"/>
+      <c r="J67" s="98"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="159" t="str">
         <f>IF(AND(E68=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E67)+1,"##")&amp;"]")</f>
-        <v>[TC-56]</v>
-      </c>
-      <c r="B68" s="155" t="s">
-        <v>203</v>
-      </c>
-      <c r="C68" s="132" t="s">
-        <v>204</v>
-      </c>
-      <c r="D68" s="134" t="s">
-        <v>205</v>
-      </c>
-      <c r="E68" s="131" t="s">
-        <v>206</v>
-      </c>
-      <c r="F68" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" s="140"/>
-      <c r="H68" s="140"/>
-      <c r="I68" s="140"/>
-    </row>
-    <row r="69" ht="51" spans="1:9">
-      <c r="A69" s="110" t="str">
+        <v/>
+      </c>
+      <c r="B68" s="95"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="95"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="159"/>
+      <c r="G68" s="161"/>
+      <c r="H68" s="143"/>
+      <c r="I68" s="176"/>
+      <c r="J68" s="98"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="159" t="str">
         <f>IF(AND(E69=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E68)+1,"##")&amp;"]")</f>
-        <v>[TC-57]</v>
-      </c>
-      <c r="B69" s="155" t="s">
-        <v>207</v>
-      </c>
-      <c r="C69" s="132" t="s">
-        <v>208</v>
-      </c>
-      <c r="D69" s="134" t="s">
-        <v>209</v>
-      </c>
-      <c r="E69" s="138" t="s">
-        <v>210</v>
-      </c>
-      <c r="F69" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="140"/>
-      <c r="H69" s="140"/>
-      <c r="I69" s="140"/>
-    </row>
-    <row r="70" ht="63.75" spans="1:9">
-      <c r="A70" s="110" t="str">
-        <f>IF(AND(E70=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E69)+1,"##")&amp;"]")</f>
-        <v>[TC-58]</v>
-      </c>
-      <c r="B70" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="C70" s="132" t="s">
-        <v>212</v>
-      </c>
-      <c r="D70" s="134" t="s">
-        <v>213</v>
-      </c>
-      <c r="E70" s="138" t="s">
-        <v>214</v>
-      </c>
-      <c r="F70" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" s="140"/>
-      <c r="H70" s="140"/>
-      <c r="I70" s="140"/>
-    </row>
-    <row r="71" ht="51" spans="1:9">
-      <c r="A71" s="110" t="str">
-        <f>IF(AND(E71=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E70)+1,"##")&amp;"]")</f>
-        <v>[TC-59]</v>
-      </c>
-      <c r="B71" s="155" t="s">
-        <v>215</v>
-      </c>
-      <c r="C71" s="132" t="s">
-        <v>216</v>
-      </c>
-      <c r="D71" s="134" t="s">
-        <v>217</v>
-      </c>
-      <c r="E71" s="132" t="s">
-        <v>218</v>
-      </c>
-      <c r="F71" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="140"/>
-      <c r="H71" s="140"/>
-      <c r="I71" s="140"/>
-    </row>
-    <row r="72" ht="63.75" spans="1:9">
-      <c r="A72" s="123" t="str">
-        <f>IF(AND(E72=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E71)+1,"##")&amp;"]")</f>
-        <v>[TC-60]</v>
-      </c>
-      <c r="B72" s="132" t="s">
-        <v>219</v>
-      </c>
-      <c r="C72" s="132" t="s">
-        <v>220</v>
-      </c>
-      <c r="D72" s="122" t="s">
-        <v>221</v>
-      </c>
-      <c r="E72" s="132" t="s">
-        <v>222</v>
-      </c>
-      <c r="F72" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="140"/>
-      <c r="H72" s="140"/>
-      <c r="I72" s="140"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="156" t="s">
-        <v>223</v>
-      </c>
-      <c r="B73" s="157"/>
-      <c r="C73" s="157"/>
-      <c r="D73" s="157"/>
-      <c r="E73" s="157"/>
-      <c r="F73" s="157"/>
-      <c r="G73" s="157"/>
-      <c r="H73" s="157"/>
-      <c r="I73" s="158"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="140"/>
-      <c r="B74" s="132"/>
-      <c r="C74" s="132"/>
-      <c r="D74" s="132"/>
-      <c r="E74" s="132"/>
-      <c r="F74" s="140"/>
-      <c r="G74" s="140"/>
-      <c r="H74" s="140"/>
-      <c r="I74" s="140"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="140"/>
-      <c r="B75" s="132"/>
-      <c r="C75" s="132"/>
-      <c r="D75" s="132"/>
-      <c r="E75" s="132"/>
-      <c r="F75" s="140"/>
-      <c r="G75" s="140"/>
-      <c r="H75" s="140"/>
-      <c r="I75" s="140"/>
+        <v/>
+      </c>
+      <c r="B69" s="95"/>
+      <c r="C69" s="95"/>
+      <c r="D69" s="95"/>
+      <c r="E69" s="95"/>
+      <c r="F69" s="98"/>
+      <c r="G69" s="98"/>
+      <c r="H69" s="98"/>
+      <c r="I69" s="98"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="159"/>
+      <c r="B70" s="95"/>
+      <c r="C70" s="95"/>
+      <c r="D70" s="95"/>
+      <c r="E70" s="95"/>
+      <c r="F70" s="98"/>
+      <c r="G70" s="98"/>
+      <c r="H70" s="98"/>
+      <c r="I70" s="98"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="159"/>
+      <c r="B71" s="95"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="98"/>
+      <c r="G71" s="98"/>
+      <c r="H71" s="98"/>
+      <c r="I71" s="98"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="159"/>
+      <c r="B72" s="95"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="95"/>
+      <c r="E72" s="95"/>
+      <c r="F72" s="98"/>
+      <c r="G72" s="98"/>
+      <c r="H72" s="98"/>
+      <c r="I72" s="98"/>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="97"/>
+      <c r="C73" s="97"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="97"/>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="97"/>
+      <c r="C74" s="97"/>
+      <c r="D74" s="97"/>
+      <c r="E74" s="97"/>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="97"/>
+      <c r="C75" s="97"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="97"/>
     </row>
     <row r="76" spans="2:5">
-      <c r="B76" s="131"/>
-      <c r="C76" s="131"/>
-      <c r="D76" s="131"/>
-      <c r="E76" s="131"/>
+      <c r="B76" s="97"/>
+      <c r="C76" s="97"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="97"/>
     </row>
     <row r="77" spans="2:5">
-      <c r="B77" s="131"/>
-      <c r="C77" s="131"/>
-      <c r="D77" s="131"/>
-      <c r="E77" s="131"/>
+      <c r="B77" s="97"/>
+      <c r="C77" s="97"/>
+      <c r="D77" s="97"/>
+      <c r="E77" s="97"/>
     </row>
     <row r="78" spans="2:5">
-      <c r="B78" s="131"/>
-      <c r="C78" s="131"/>
-      <c r="D78" s="131"/>
-      <c r="E78" s="131"/>
+      <c r="B78" s="97"/>
+      <c r="C78" s="97"/>
+      <c r="D78" s="97"/>
+      <c r="E78" s="97"/>
     </row>
     <row r="79" spans="2:5">
-      <c r="B79" s="131"/>
-      <c r="C79" s="131"/>
-      <c r="D79" s="131"/>
-      <c r="E79" s="131"/>
+      <c r="B79" s="97"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="97"/>
     </row>
     <row r="80" spans="2:5">
-      <c r="B80" s="131"/>
-      <c r="C80" s="131"/>
-      <c r="D80" s="131"/>
-      <c r="E80" s="131"/>
+      <c r="B80" s="97"/>
+      <c r="C80" s="97"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="97"/>
     </row>
     <row r="81" spans="2:5">
-      <c r="B81" s="131"/>
-      <c r="C81" s="131"/>
-      <c r="D81" s="131"/>
-      <c r="E81" s="131"/>
+      <c r="B81" s="97"/>
+      <c r="C81" s="97"/>
+      <c r="D81" s="97"/>
+      <c r="E81" s="97"/>
     </row>
     <row r="82" spans="2:5">
-      <c r="B82" s="131"/>
-      <c r="C82" s="131"/>
-      <c r="D82" s="131"/>
-      <c r="E82" s="131"/>
-    </row>
-    <row r="83" spans="2:5">
-      <c r="B83" s="131"/>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="131"/>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="B84" s="131"/>
-      <c r="C84" s="131"/>
-      <c r="D84" s="131"/>
-      <c r="E84" s="131"/>
-    </row>
-    <row r="85" spans="2:5">
-      <c r="B85" s="131"/>
-      <c r="C85" s="131"/>
-      <c r="D85" s="131"/>
-      <c r="E85" s="131"/>
-    </row>
-    <row r="86" spans="2:5">
-      <c r="B86" s="131"/>
-      <c r="C86" s="131"/>
-      <c r="D86" s="131"/>
-      <c r="E86" s="131"/>
-    </row>
-    <row r="87" spans="2:5">
-      <c r="B87" s="131"/>
-      <c r="C87" s="131"/>
-      <c r="D87" s="131"/>
-      <c r="E87" s="131"/>
-    </row>
-    <row r="88" spans="2:5">
-      <c r="B88" s="131"/>
-      <c r="C88" s="131"/>
-      <c r="D88" s="131"/>
-      <c r="E88" s="131"/>
-    </row>
-    <row r="89" spans="2:5">
-      <c r="B89" s="131"/>
-      <c r="C89" s="131"/>
-      <c r="D89" s="131"/>
-      <c r="E89" s="131"/>
-    </row>
-    <row r="90" spans="2:5">
-      <c r="B90" s="131"/>
-      <c r="C90" s="131"/>
-      <c r="D90" s="131"/>
-      <c r="E90" s="131"/>
-    </row>
-    <row r="91" spans="2:5">
-      <c r="B91" s="131"/>
-      <c r="C91" s="131"/>
-      <c r="D91" s="131"/>
-      <c r="E91" s="131"/>
-    </row>
-    <row r="92" spans="2:5">
-      <c r="B92" s="131"/>
-      <c r="C92" s="131"/>
-      <c r="D92" s="131"/>
-      <c r="E92" s="131"/>
-    </row>
-    <row r="93" spans="2:5">
-      <c r="B93" s="131"/>
-      <c r="C93" s="131"/>
-      <c r="D93" s="131"/>
-      <c r="E93" s="131"/>
-    </row>
-    <row r="94" spans="2:5">
-      <c r="B94" s="131"/>
-      <c r="C94" s="131"/>
-      <c r="D94" s="131"/>
-      <c r="E94" s="131"/>
-    </row>
-    <row r="95" spans="2:5">
-      <c r="B95" s="131"/>
-      <c r="C95" s="131"/>
-      <c r="D95" s="131"/>
-      <c r="E95" s="131"/>
-    </row>
-    <row r="96" spans="2:5">
-      <c r="B96" s="131"/>
-      <c r="C96" s="131"/>
-      <c r="D96" s="131"/>
-      <c r="E96" s="131"/>
-    </row>
-    <row r="97" spans="2:5">
-      <c r="B97" s="131"/>
-      <c r="C97" s="131"/>
-      <c r="D97" s="131"/>
-      <c r="E97" s="131"/>
-    </row>
-    <row r="98" spans="2:5">
-      <c r="B98" s="131"/>
-      <c r="C98" s="131"/>
-      <c r="D98" s="131"/>
-      <c r="E98" s="131"/>
-    </row>
-    <row r="99" spans="2:5">
-      <c r="B99" s="131"/>
-      <c r="C99" s="131"/>
-      <c r="D99" s="131"/>
-      <c r="E99" s="131"/>
+      <c r="B82" s="97"/>
+      <c r="C82" s="97"/>
+      <c r="D82" s="97"/>
+      <c r="E82" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="8">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A19:I19"/>
+    <mergeCell ref="J19:R19"/>
     <mergeCell ref="A36:I36"/>
     <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A73:I73"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="A56:I56"/>
   </mergeCells>
   <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+      <formula>Fail</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
     <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -7322,56 +8147,59 @@
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+  <conditionalFormatting sqref="F1:F18">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
       <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="equal">
+      <formula>Fail</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="18" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57:F68">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Fail"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>Fail</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"Fail"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F35 F37 F39 F42:F55">
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F18">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
-      <formula>"Pass"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+      <formula>"Fail"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
       <formula>Fail</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F35 F37 F39 F42:F72">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
-      <formula>Fail</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F36 F37 F38 F39 F40 F41 F61 F68 F69 F10:F19 F20:F21 F22:F23 F24:F33 F34:F35 F42:F49 F50:F58 F59:F60 F62:F67 F70:F72">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O19 F10:F55 F57:F68">
       <formula1>"Pass,Fail,N/A,Untested"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:H2">
       <formula1>$J$1:$J$5</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J22" r:id="rId1" display="ID:0035202" tooltip="https://mantisbt.org/bugs/view.php?id=35202"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -7380,23 +8208,577 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="22.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="26.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="16.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="17.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="20.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="73"/>
+    </row>
+    <row r="2" ht="25.5" spans="1:5">
+      <c r="A2" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="100"/>
+    </row>
+    <row r="6" ht="91" customHeight="1" spans="1:9">
+      <c r="A6" s="80" t="str">
+        <f>IF(AND(E6=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-6-COUNTBLANK($E$6:E6)+1,"##")&amp;"]")</f>
+        <v>[TC-1]</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="85">
+        <f ca="1">TODAY()</f>
+        <v>45671</v>
+      </c>
+      <c r="H6" s="86" t="str">
+        <f>$B$3</f>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I6" s="101"/>
+    </row>
+    <row r="7" ht="63.75" spans="1:9">
+      <c r="A7" s="80" t="str">
+        <f>IF(AND(E7=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-6-COUNTBLANK($E$6:E7)+1,"##")&amp;"]")</f>
+        <v>[TC-2]</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="85">
+        <f ca="1">TODAY()</f>
+        <v>45671</v>
+      </c>
+      <c r="H7" s="86" t="str">
+        <f>$B$3</f>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I7" s="102"/>
+    </row>
+    <row r="8" ht="89.25" spans="1:9">
+      <c r="A8" s="80" t="str">
+        <f>IF(AND(E8=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-6-COUNTBLANK($E$6:E8)+1,"##")&amp;"]")</f>
+        <v>[TC-3]</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="82" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="85">
+        <f ca="1" t="shared" ref="G8:G21" si="0">TODAY()</f>
+        <v>45671</v>
+      </c>
+      <c r="H8" s="93" t="str">
+        <f>$B$3</f>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I8" s="101"/>
+    </row>
+    <row r="9" ht="60" spans="1:9">
+      <c r="A9" s="80" t="str">
+        <f>IF(AND(E9=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-6-COUNTBLANK($E$6:E9)+1,"##")&amp;"]")</f>
+        <v>[TC-4]</v>
+      </c>
+      <c r="B9" s="94" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="95" t="s">
+        <v>220</v>
+      </c>
+      <c r="F9" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="85">
+        <f ca="1" t="shared" si="0"/>
+        <v>45671</v>
+      </c>
+      <c r="H9" s="93" t="str">
+        <f t="shared" ref="H9:H22" si="1">$B$3</f>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I9" s="98"/>
+    </row>
+    <row r="10" ht="76.5" spans="1:9">
+      <c r="A10" s="80" t="str">
+        <f>IF(AND(E10=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-6-COUNTBLANK($E$6:E10)+1,"##")&amp;"]")</f>
+        <v>[TC-5]</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="F10" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="85">
+        <f ca="1" t="shared" si="0"/>
+        <v>45671</v>
+      </c>
+      <c r="H10" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I10" s="98"/>
+    </row>
+    <row r="11" ht="63.75" spans="1:9">
+      <c r="A11" s="80" t="str">
+        <f>IF(AND(E11=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-6-COUNTBLANK($E$6:E11)+1,"##")&amp;"]")</f>
+        <v>[TC-6]</v>
+      </c>
+      <c r="B11" s="94" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="95" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="85">
+        <f ca="1" t="shared" si="0"/>
+        <v>45671</v>
+      </c>
+      <c r="H11" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I11" s="98"/>
+    </row>
+    <row r="12" ht="79" customHeight="1" spans="1:9">
+      <c r="A12" s="80" t="str">
+        <f>IF(AND(E12=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-6-COUNTBLANK($E$6:E12)+1,"##")&amp;"]")</f>
+        <v>[TC-7]</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="85">
+        <f ca="1" t="shared" si="0"/>
+        <v>45671</v>
+      </c>
+      <c r="H12" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I12" s="98"/>
+    </row>
+    <row r="13" ht="63.75" spans="1:9">
+      <c r="A13" s="80" t="str">
+        <f>IF(AND(E13=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-6-COUNTBLANK($E$6:E13)+1,"##")&amp;"]")</f>
+        <v>[TC-8]</v>
+      </c>
+      <c r="B13" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" s="95" t="s">
+        <v>235</v>
+      </c>
+      <c r="F13" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="85">
+        <f ca="1" t="shared" si="0"/>
+        <v>45671</v>
+      </c>
+      <c r="H13" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I13" s="98"/>
+    </row>
+    <row r="14" ht="63.75" spans="1:9">
+      <c r="A14" s="80" t="str">
+        <f>IF(AND(E14=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-6-COUNTBLANK($E$6:E14)+1,"##")&amp;"]")</f>
+        <v>[TC-9]</v>
+      </c>
+      <c r="B14" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="95" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" s="95" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="85">
+        <f ca="1" t="shared" si="0"/>
+        <v>45671</v>
+      </c>
+      <c r="H14" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I14" s="98"/>
+    </row>
+    <row r="15" ht="76.5" spans="1:9">
+      <c r="A15" s="80" t="str">
+        <f>IF(AND(E15=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-6-COUNTBLANK($E$6:E15)+1,"##")&amp;"]")</f>
+        <v>[TC-10]</v>
+      </c>
+      <c r="B15" s="94" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="95" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15" s="95" t="s">
+        <v>243</v>
+      </c>
+      <c r="F15" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="85">
+        <f ca="1" t="shared" si="0"/>
+        <v>45671</v>
+      </c>
+      <c r="H15" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I15" s="98"/>
+    </row>
+    <row r="16" ht="70" customHeight="1" spans="1:9">
+      <c r="A16" s="80" t="str">
+        <f>IF(AND(E16=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-6-COUNTBLANK($E$6:E16)+1,"##")&amp;"]")</f>
+        <v>[TC-11]</v>
+      </c>
+      <c r="B16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="95" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="97" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="85">
+        <f ca="1" t="shared" si="0"/>
+        <v>45671</v>
+      </c>
+      <c r="H16" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Thị Bích Ngọc</v>
+      </c>
+      <c r="I16" s="98"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="80" t="str">
+        <f>IF(AND(E17=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-6-COUNTBLANK($E$6:E17)+1,"##")&amp;"]")</f>
+        <v/>
+      </c>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="98"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="80" t="str">
+        <f>IF(AND(E18=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-6-COUNTBLANK($E$6:E18)+1,"##")&amp;"]")</f>
+        <v/>
+      </c>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="98"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="80" t="str">
+        <f>IF(AND(E19=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-6-COUNTBLANK($E$6:E19)+1,"##")&amp;"]")</f>
+        <v/>
+      </c>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="98"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="80" t="str">
+        <f>IF(AND(E20=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-6-COUNTBLANK($E$6:E20)+1,"##")&amp;"]")</f>
+        <v/>
+      </c>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="98"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="80" t="str">
+        <f>IF(AND(E21=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-6-COUNTBLANK($E$6:E21)+1,"##")&amp;"]")</f>
+        <v/>
+      </c>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="98"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="80" t="str">
+        <f>IF(AND(E22=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-6-COUNTBLANK($E$6:E22)+1,"##")&amp;"]")</f>
+        <v/>
+      </c>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="98"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="80" t="str">
+        <f>IF(AND(E23=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-6-COUNTBLANK($E$6:E23)+1,"##")&amp;"]")</f>
+        <v/>
+      </c>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="80" t="str">
+        <f>IF(AND(E24=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-6-COUNTBLANK($E$6:E24)+1,"##")&amp;"]")</f>
+        <v/>
+      </c>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F5:F22">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>Fail</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F6:F22">
+      <formula1>"Pass,Fail,N/A,Untested"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="13.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="16.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="14.5714285714286" customWidth="1"/>
     <col min="8" max="8" width="52.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" spans="1:8">
       <c r="A1" s="36"/>
       <c r="B1" s="37" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -7418,12 +8800,12 @@
     <row r="3" spans="1:8">
       <c r="A3" s="36"/>
       <c r="B3" s="41" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="7"/>
       <c r="E3" s="43" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="44"/>
@@ -7432,12 +8814,12 @@
     <row r="4" spans="1:8">
       <c r="A4" s="36"/>
       <c r="B4" s="41" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="7"/>
       <c r="E4" s="43" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="42"/>
@@ -7446,12 +8828,12 @@
     <row r="5" spans="1:8">
       <c r="A5" s="36"/>
       <c r="B5" s="46" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="7"/>
       <c r="E5" s="43" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="47"/>
@@ -7460,7 +8842,7 @@
     <row r="6" spans="1:8">
       <c r="A6" s="39"/>
       <c r="B6" s="46" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="6"/>
@@ -7499,57 +8881,38 @@
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
     </row>
-    <row r="10" ht="38.25" spans="1:8">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>234</v>
-      </c>
+    <row r="10" spans="1:8">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="51"/>
-      <c r="B11" s="57">
-        <v>1</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="59">
-        <f>'[1]Test cases'!A5</f>
-        <v>5</v>
-      </c>
-      <c r="E11" s="59">
-        <f>'[1]Test cases'!B5</f>
-        <v>27</v>
-      </c>
-      <c r="F11" s="59">
-        <f>'[1]Test cases'!C5</f>
-        <v>1</v>
-      </c>
-      <c r="G11" s="59">
-        <f>'[1]Test cases'!D5</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="59">
-        <f>SUM(D11:G11)</f>
-        <v>33</v>
+      <c r="B11" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -7557,12 +8920,29 @@
       <c r="B12" s="57">
         <v>1</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
+      <c r="C12" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="D12" s="59" t="str">
+        <f>'[1]Test cases'!A6</f>
+        <v>%</v>
+      </c>
+      <c r="E12" s="59" t="str">
+        <f>'[1]Test cases'!B6</f>
+        <v>%</v>
+      </c>
+      <c r="F12" s="59" t="str">
+        <f>'[1]Test cases'!C6</f>
+        <v>%</v>
+      </c>
+      <c r="G12" s="59" t="str">
+        <f>'[1]Test cases'!D6</f>
+        <v>%</v>
+      </c>
+      <c r="H12" s="59">
+        <f>SUM(D12:G12)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="51"/>
@@ -7614,7 +8994,9 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="51"/>
-      <c r="B17" s="57"/>
+      <c r="B17" s="57">
+        <v>1</v>
+      </c>
       <c r="C17" s="60"/>
       <c r="D17" s="59"/>
       <c r="E17" s="59"/>
@@ -7624,74 +9006,84 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="51"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="62" t="s">
-        <v>236</v>
-      </c>
-      <c r="D18" s="63">
-        <f t="shared" ref="D18:H18" si="0">SUM(D11:D17)</f>
-        <v>5</v>
-      </c>
-      <c r="E18" s="63">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="F18" s="63">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G18" s="63">
+      <c r="B18" s="57"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="51"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="D19" s="63">
+        <f t="shared" ref="D19:H19" si="0">SUM(D12:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="64">
+      <c r="F19" s="63">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="36"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="69">
-        <f>($D18+$E18)*100/$H18</f>
-        <v>96.969696969697</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="70"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="68" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="D21" s="36"/>
-      <c r="E21" s="69">
-        <f>$D18*100/($D18+$G18)</f>
-        <v>100</v>
+      <c r="E21" s="69" t="e">
+        <f>($D19+$E19)*100/$H19</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="36"/>
       <c r="H21" s="70"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="69" t="e">
+        <f>$D19*100/($D19+$G19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7708,14 +9100,14 @@
     <mergeCell ref="C6:H6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C11" location="'Test cases'!A1" display="Software Testing"/>
+    <hyperlink ref="C12" location="'Test cases'!A1" display="Software Testing"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G18"/>
@@ -7744,7 +9136,7 @@
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -7763,39 +9155,39 @@
     <row r="4" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" s="11" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="11" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" s="11" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
       <c r="F5" s="11" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="14" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
       <c r="F6" s="11" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="G6" s="18"/>
     </row>
@@ -7806,7 +9198,7 @@
       <c r="D7" s="21"/>
       <c r="E7" s="22"/>
       <c r="F7" s="11" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="G7" s="23"/>
     </row>
@@ -7831,7 +9223,7 @@
     <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="24" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -7842,16 +9234,16 @@
     <row r="11" spans="1:7">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>19</v>
